--- a/salidas/latest-insiders-trading-Buy.xlsx
+++ b/salidas/latest-insiders-trading-Buy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODIGO\VSCODE_PROJECTS\PYTHON\python-cinco\salidas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04CE5DE-7E02-41C1-9FE4-E82A487E840C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C19352-EA6F-4043-B22C-E5AB33872F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="72">
   <si>
     <t>Ticker</t>
   </si>
@@ -52,211 +52,190 @@
     <t>SEC Form 4</t>
   </si>
   <si>
-    <t>BHRB</t>
-  </si>
-  <si>
-    <t>Riojas Jose David</t>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Hoag Jay C</t>
   </si>
   <si>
     <t>Director</t>
   </si>
   <si>
+    <t>Jun 07</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Jun 11 09:59 PM</t>
+  </si>
+  <si>
+    <t>Jun 10</t>
+  </si>
+  <si>
+    <t>Jun 11</t>
+  </si>
+  <si>
+    <t>ZG</t>
+  </si>
+  <si>
+    <t>UHG</t>
+  </si>
+  <si>
+    <t>Nieri Pennington W.</t>
+  </si>
+  <si>
+    <t>Co-Exec. VP - Construction</t>
+  </si>
+  <si>
+    <t>Jun 11 09:19 PM</t>
+  </si>
+  <si>
+    <t>Nieri Patrick Michael</t>
+  </si>
+  <si>
+    <t>10% Owner</t>
+  </si>
+  <si>
+    <t>Jun 11 09:05 PM</t>
+  </si>
+  <si>
+    <t>Lincks Maigan Nieri</t>
+  </si>
+  <si>
+    <t>Jun 11 08:41 PM</t>
+  </si>
+  <si>
+    <t>Nieri Michael P.</t>
+  </si>
+  <si>
+    <t>Chairman and CEO</t>
+  </si>
+  <si>
+    <t>Jun 11 08:20 PM</t>
+  </si>
+  <si>
+    <t>OPAD</t>
+  </si>
+  <si>
+    <t>Sella Roberto Marco</t>
+  </si>
+  <si>
+    <t>Jun 11 07:57 PM</t>
+  </si>
+  <si>
+    <t>PDYN</t>
+  </si>
+  <si>
+    <t>GARAGIC DENIS</t>
+  </si>
+  <si>
+    <t>CHIEF TECHNOLOGY OFFICER</t>
+  </si>
+  <si>
+    <t>Jun 11 07:20 PM</t>
+  </si>
+  <si>
+    <t>MCB</t>
+  </si>
+  <si>
+    <t>Wolf George J Jr</t>
+  </si>
+  <si>
+    <t>Jun 11 07:07 PM</t>
+  </si>
+  <si>
+    <t>CDTX</t>
+  </si>
+  <si>
+    <t>Stein Jeffrey</t>
+  </si>
+  <si>
+    <t>President &amp; CEO</t>
+  </si>
+  <si>
+    <t>Jun 11 06:26 PM</t>
+  </si>
+  <si>
+    <t>CSV</t>
+  </si>
+  <si>
+    <t>Fargason Charles</t>
+  </si>
+  <si>
+    <t>Jun 11 06:23 PM</t>
+  </si>
+  <si>
+    <t>FTHM</t>
+  </si>
+  <si>
+    <t>Flanders Scott N</t>
+  </si>
+  <si>
+    <t>Jun 11 05:53 PM</t>
+  </si>
+  <si>
+    <t>CWBC</t>
+  </si>
+  <si>
+    <t>RAMOS ANTHONY KENNETH</t>
+  </si>
+  <si>
+    <t>EXECUTIVE VICE PRESIDENT</t>
+  </si>
+  <si>
+    <t>Jun 11 05:48 PM</t>
+  </si>
+  <si>
+    <t>FPAY</t>
+  </si>
+  <si>
+    <t>Dvorkin Howard</t>
+  </si>
+  <si>
     <t>Jun 06</t>
   </si>
   <si>
-    <t>Buy</t>
-  </si>
-  <si>
-    <t>Jun 07 08:08 AM</t>
-  </si>
-  <si>
-    <t>JXN</t>
-  </si>
-  <si>
-    <t>Cummings Don W</t>
-  </si>
-  <si>
-    <t>EVP and CFO</t>
-  </si>
-  <si>
-    <t>Jun 05</t>
-  </si>
-  <si>
-    <t>Jun 07 08:02 AM</t>
-  </si>
-  <si>
-    <t>BCBP</t>
-  </si>
-  <si>
-    <t>Rizzo James G.</t>
-  </si>
-  <si>
-    <t>PODC</t>
-  </si>
-  <si>
-    <t>MERRIMAN D JONATHAN</t>
-  </si>
-  <si>
-    <t>Jun 06 09:45 PM</t>
-  </si>
-  <si>
-    <t>PHUN</t>
-  </si>
-  <si>
-    <t>Reisner Troy Lee</t>
-  </si>
-  <si>
-    <t>Chief Financial Officer</t>
-  </si>
-  <si>
-    <t>Jun 04</t>
-  </si>
-  <si>
-    <t>Jun 06 09:18 PM</t>
-  </si>
-  <si>
-    <t>KKR</t>
-  </si>
-  <si>
-    <t>KKR Alternative Assets LLC</t>
-  </si>
-  <si>
-    <t>10% Owner</t>
-  </si>
-  <si>
-    <t>Jun 06 09:02 PM</t>
-  </si>
-  <si>
-    <t>RSVR</t>
-  </si>
-  <si>
-    <t>Khosrowshahi Hassan</t>
-  </si>
-  <si>
-    <t>Jun 06 07:18 PM</t>
-  </si>
-  <si>
-    <t>RSG</t>
-  </si>
-  <si>
-    <t>Weymouth Katharine</t>
-  </si>
-  <si>
-    <t>Jun 06 06:58 PM</t>
-  </si>
-  <si>
-    <t>OPAD</t>
-  </si>
-  <si>
-    <t>Sella Roberto Marco</t>
-  </si>
-  <si>
-    <t>Jun 06 06:40 PM</t>
-  </si>
-  <si>
-    <t>FTHM</t>
-  </si>
-  <si>
-    <t>Flanders Scott N</t>
-  </si>
-  <si>
-    <t>ALTI</t>
-  </si>
-  <si>
-    <t>ilWaddi Holdings</t>
-  </si>
-  <si>
-    <t>Jun 06 06:27 PM</t>
-  </si>
-  <si>
-    <t>ASRT</t>
-  </si>
-  <si>
-    <t>Mason Heather L</t>
-  </si>
-  <si>
-    <t>Interim Executive Officer</t>
-  </si>
-  <si>
-    <t>Jun 06 06:00 PM</t>
-  </si>
-  <si>
-    <t>BYON</t>
-  </si>
-  <si>
-    <t>LEMONIS MARCUS</t>
-  </si>
-  <si>
-    <t>EXECUTIVE CHAIRMAN OF BOARD</t>
-  </si>
-  <si>
-    <t>Jun 06 05:53 PM</t>
-  </si>
-  <si>
-    <t>BBAI</t>
-  </si>
-  <si>
-    <t>Braden Pamela Joyce</t>
-  </si>
-  <si>
-    <t>Jun 03</t>
-  </si>
-  <si>
-    <t>Jun 06 05:52 PM</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>NEUKOM WILLIAM H.</t>
-  </si>
-  <si>
-    <t>Jun 06 05:40 PM</t>
-  </si>
-  <si>
-    <t>UBFO</t>
-  </si>
-  <si>
-    <t>GILL JAGROOP</t>
-  </si>
-  <si>
-    <t>Jun 06 05:36 PM</t>
-  </si>
-  <si>
-    <t>UGRO</t>
-  </si>
-  <si>
-    <t>WILKS LEWIS</t>
-  </si>
-  <si>
-    <t>Jun 06 05:23 PM</t>
-  </si>
-  <si>
-    <t>STIM</t>
-  </si>
-  <si>
-    <t>CASCELLA ROBERT</t>
-  </si>
-  <si>
-    <t>Jun 06 05:15 PM</t>
-  </si>
-  <si>
-    <t>PCF</t>
-  </si>
-  <si>
-    <t>HELLERMAN GERALD</t>
-  </si>
-  <si>
-    <t>Jun 06 05:00 PM</t>
-  </si>
-  <si>
-    <t>SYPR</t>
-  </si>
-  <si>
-    <t>Convis Gary L</t>
-  </si>
-  <si>
-    <t>Jun 06 04:59 PM</t>
+    <t>Jun 11 05:41 PM</t>
+  </si>
+  <si>
+    <t>TMCI</t>
+  </si>
+  <si>
+    <t>Treace John T.</t>
+  </si>
+  <si>
+    <t>Chief Executive Officer</t>
+  </si>
+  <si>
+    <t>Jun 11 05:30 PM</t>
+  </si>
+  <si>
+    <t>VST</t>
+  </si>
+  <si>
+    <t>Crutchfield Lisa</t>
+  </si>
+  <si>
+    <t>Jun 11 05:11 PM</t>
+  </si>
+  <si>
+    <t>RKT</t>
+  </si>
+  <si>
+    <t>Rizik Matthew</t>
+  </si>
+  <si>
+    <t>Jun 11 05:07 PM</t>
+  </si>
+  <si>
+    <t>AEI</t>
+  </si>
+  <si>
+    <t>Chan Heng Fai Ambrose</t>
+  </si>
+  <si>
+    <t>Jun 11 05:06 PM</t>
   </si>
 </sst>
 </file>
@@ -596,23 +575,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -649,205 +626,205 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2">
-        <v>25.56</v>
+        <v>42.27</v>
       </c>
       <c r="G2">
-        <v>1956182</v>
+        <v>1000000</v>
       </c>
       <c r="H2">
-        <v>50000000</v>
+        <v>42275000</v>
       </c>
       <c r="I2">
-        <v>9688618</v>
+        <v>652520</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>42.27</v>
       </c>
       <c r="G3">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="H3">
-        <v>2399570</v>
+        <v>42275000</v>
       </c>
       <c r="I3">
-        <v>28526573</v>
+        <v>652520</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4">
-        <v>8.11</v>
+        <v>43.14</v>
       </c>
       <c r="G4">
-        <v>50000</v>
+        <v>816866</v>
       </c>
       <c r="H4">
-        <v>405335</v>
+        <v>35242867</v>
       </c>
       <c r="I4">
-        <v>28576573</v>
+        <v>1185540</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5">
-        <v>14.61</v>
+        <v>43.14</v>
       </c>
       <c r="G5">
-        <v>17075</v>
+        <v>816866</v>
       </c>
       <c r="H5">
-        <v>249466</v>
+        <v>35242867</v>
       </c>
       <c r="I5">
-        <v>186973</v>
+        <v>1185540</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6">
-        <v>1.49</v>
+        <v>43.07</v>
       </c>
       <c r="G6">
-        <v>140939</v>
+        <v>521170</v>
       </c>
       <c r="H6">
-        <v>209999</v>
+        <v>22448877</v>
       </c>
       <c r="I6">
-        <v>446396</v>
+        <v>1525612</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7">
-        <v>72.7</v>
+        <v>43.07</v>
       </c>
       <c r="G7">
-        <v>1445</v>
+        <v>521170</v>
       </c>
       <c r="H7">
-        <v>105052</v>
+        <v>22448877</v>
       </c>
       <c r="I7">
-        <v>45711</v>
+        <v>1525612</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -856,254 +833,254 @@
         <v>14</v>
       </c>
       <c r="F8">
-        <v>2.0499999999999998</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>50000</v>
+        <v>1269659</v>
       </c>
       <c r="H8">
-        <v>102550</v>
+        <v>6348295</v>
       </c>
       <c r="I8">
-        <v>244098</v>
+        <v>980000</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9">
-        <v>72.489999999999995</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>1381</v>
+        <v>621328</v>
       </c>
       <c r="H9">
-        <v>100109</v>
+        <v>3106640</v>
       </c>
       <c r="I9">
-        <v>47092</v>
+        <v>621328</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10">
-        <v>185.26</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>540</v>
+        <v>144830</v>
       </c>
       <c r="H10">
-        <v>100040</v>
+        <v>724150</v>
       </c>
       <c r="I10">
-        <v>540</v>
+        <v>144830</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11">
-        <v>4.99</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>20000</v>
+        <v>144829</v>
       </c>
       <c r="H11">
-        <v>99800</v>
+        <v>724145</v>
       </c>
       <c r="I11">
-        <v>17953265</v>
+        <v>144829</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
       <c r="F12">
-        <v>1.83</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>31115</v>
+        <v>133360</v>
       </c>
       <c r="H12">
-        <v>56975</v>
+        <v>666800</v>
       </c>
       <c r="I12">
-        <v>655378</v>
+        <v>133360</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="F13">
-        <v>4.74</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>11319</v>
+        <v>133320</v>
       </c>
       <c r="H13">
-        <v>53652</v>
+        <v>666600</v>
       </c>
       <c r="I13">
-        <v>17964584</v>
+        <v>133320</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
       <c r="F14">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>10045</v>
+        <v>133320</v>
       </c>
       <c r="H14">
-        <v>49216</v>
+        <v>666600</v>
       </c>
       <c r="I14">
-        <v>3083932</v>
+        <v>133320</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
       </c>
       <c r="F15">
-        <v>1.95</v>
+        <v>5.88</v>
       </c>
       <c r="G15">
-        <v>22000</v>
+        <v>45000</v>
       </c>
       <c r="H15">
-        <v>42900</v>
+        <v>264600</v>
       </c>
       <c r="I15">
-        <v>50839</v>
+        <v>6388095</v>
       </c>
       <c r="J15" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -1112,30 +1089,30 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <v>1.94</v>
+        <v>17.25</v>
       </c>
       <c r="G16">
-        <v>20000</v>
+        <v>13400</v>
       </c>
       <c r="H16">
-        <v>38800</v>
+        <v>231150</v>
       </c>
       <c r="I16">
-        <v>70839</v>
+        <v>22381</v>
       </c>
       <c r="J16" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -1144,408 +1121,568 @@
         <v>14</v>
       </c>
       <c r="F17">
-        <v>59.55</v>
+        <v>13.21</v>
       </c>
       <c r="G17">
-        <v>586</v>
+        <v>8000</v>
       </c>
       <c r="H17">
-        <v>34898</v>
+        <v>105680</v>
       </c>
       <c r="I17">
-        <v>295778</v>
+        <v>24580</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
       <c r="F18">
-        <v>7.25</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="G18">
-        <v>4543</v>
+        <v>15104</v>
       </c>
       <c r="H18">
-        <v>32937</v>
+        <v>73810</v>
       </c>
       <c r="I18">
-        <v>1071412</v>
+        <v>3104064</v>
       </c>
       <c r="J18" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
       <c r="F19">
-        <v>0.97</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G19">
-        <v>25000</v>
+        <v>64054</v>
       </c>
       <c r="H19">
-        <v>24250</v>
+        <v>71740</v>
       </c>
       <c r="I19">
-        <v>212650</v>
+        <v>4390299</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
       <c r="F20">
-        <v>4.8099999999999996</v>
+        <v>4.88</v>
       </c>
       <c r="G20">
-        <v>5028</v>
+        <v>14386</v>
       </c>
       <c r="H20">
-        <v>24183</v>
+        <v>70196</v>
       </c>
       <c r="I20">
-        <v>3088960</v>
+        <v>3118450</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="F21">
-        <v>1.79</v>
+        <v>28.4</v>
       </c>
       <c r="G21">
-        <v>9400</v>
+        <v>2000</v>
       </c>
       <c r="H21">
-        <v>16846</v>
+        <v>56800</v>
       </c>
       <c r="I21">
-        <v>624263</v>
+        <v>18005</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
       </c>
       <c r="F22">
-        <v>1.47</v>
+        <v>28.05</v>
       </c>
       <c r="G22">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="H22">
-        <v>14700</v>
+        <v>56100</v>
       </c>
       <c r="I22">
-        <v>184108</v>
+        <v>20005</v>
       </c>
       <c r="J22" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
       </c>
       <c r="F23">
-        <v>1.62</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G23">
-        <v>8967</v>
+        <v>50000</v>
       </c>
       <c r="H23">
-        <v>14527</v>
+        <v>55000</v>
       </c>
       <c r="I23">
-        <v>356366</v>
+        <v>5443065</v>
       </c>
       <c r="J23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
       </c>
       <c r="F24">
-        <v>5.76</v>
+        <v>39</v>
       </c>
       <c r="G24">
-        <v>2500</v>
+        <v>1183</v>
       </c>
       <c r="H24">
-        <v>14400</v>
+        <v>46137</v>
       </c>
       <c r="I24">
-        <v>16500</v>
+        <v>27995</v>
       </c>
       <c r="J24" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
       </c>
       <c r="F25">
-        <v>1.43</v>
+        <v>1.89</v>
       </c>
       <c r="G25">
-        <v>10000</v>
+        <v>15832</v>
       </c>
       <c r="H25">
-        <v>14300</v>
+        <v>29981</v>
       </c>
       <c r="I25">
-        <v>174108</v>
+        <v>671210</v>
       </c>
       <c r="J25" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
       </c>
       <c r="F26">
-        <v>9.8000000000000007</v>
+        <v>89.46</v>
       </c>
       <c r="G26">
-        <v>1000</v>
+        <v>335</v>
       </c>
       <c r="H26">
-        <v>9800</v>
+        <v>29969</v>
       </c>
       <c r="I26">
-        <v>71554</v>
+        <v>32186</v>
       </c>
       <c r="J26" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
       </c>
       <c r="F27">
-        <v>9.83</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G27">
-        <v>250</v>
+        <v>20467</v>
       </c>
       <c r="H27">
-        <v>2458</v>
+        <v>23537</v>
       </c>
       <c r="I27">
-        <v>53518</v>
+        <v>4410766</v>
       </c>
       <c r="J27" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
       </c>
       <c r="F28">
-        <v>6.81</v>
+        <v>1.86</v>
       </c>
       <c r="G28">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="H28">
-        <v>681</v>
+        <v>18639</v>
       </c>
       <c r="I28">
-        <v>40026</v>
+        <v>681210</v>
       </c>
       <c r="J28" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29">
+        <v>1.01</v>
+      </c>
+      <c r="G29">
+        <v>16567</v>
+      </c>
+      <c r="H29">
+        <v>16748</v>
+      </c>
+      <c r="I29">
+        <v>5459632</v>
+      </c>
+      <c r="J29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G30">
+        <v>6400</v>
+      </c>
+      <c r="H30">
+        <v>7168</v>
+      </c>
+      <c r="I30">
+        <v>4326245</v>
+      </c>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31">
+        <v>14.33</v>
+      </c>
+      <c r="G31">
+        <v>305</v>
+      </c>
+      <c r="H31">
+        <v>4371</v>
+      </c>
+      <c r="I31">
+        <v>704297</v>
+      </c>
+      <c r="J31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
         <v>13</v>
       </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29">
-        <v>47.75</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29">
-        <v>143</v>
-      </c>
-      <c r="I29">
-        <v>14603</v>
-      </c>
-      <c r="J29" t="s">
-        <v>15</v>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32">
+        <v>39</v>
+      </c>
+      <c r="G32">
+        <v>97</v>
+      </c>
+      <c r="H32">
+        <v>3783</v>
+      </c>
+      <c r="I32">
+        <v>26812</v>
+      </c>
+      <c r="J32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33">
+        <v>14.22</v>
+      </c>
+      <c r="G33">
+        <v>265</v>
+      </c>
+      <c r="H33">
+        <v>3768</v>
+      </c>
+      <c r="I33">
+        <v>703992</v>
+      </c>
+      <c r="J33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34">
+        <v>1.8</v>
+      </c>
+      <c r="G34">
+        <v>1000</v>
+      </c>
+      <c r="H34">
+        <v>1800</v>
+      </c>
+      <c r="I34">
+        <v>552743</v>
+      </c>
+      <c r="J34" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J29">
-    <sortCondition descending="1" ref="H1:H29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J34">
+    <sortCondition descending="1" ref="H1:H34"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/salidas/latest-insiders-trading-Buy.xlsx
+++ b/salidas/latest-insiders-trading-Buy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>BCDA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hoag Jay C</t>
+          <t>Altman Peter</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>President and CEO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,20 +500,20 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>42.27</v>
+        <v>3.36</v>
       </c>
       <c r="G2" t="n">
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>42275000</v>
+        <v>3360</v>
       </c>
       <c r="I2" t="n">
-        <v>652520</v>
+        <v>38245</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Jun 11 09:59 PM</t>
+          <t>Jun 12 07:00 AM</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>43.14</v>
+        <v>42.27</v>
       </c>
       <c r="G3" t="n">
-        <v>816866</v>
+        <v>1000000</v>
       </c>
       <c r="H3" t="n">
-        <v>35242867</v>
+        <v>42275000</v>
       </c>
       <c r="I3" t="n">
-        <v>1185540</v>
+        <v>652520</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -588,16 +588,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>43.07</v>
+        <v>43.14</v>
       </c>
       <c r="G4" t="n">
-        <v>521170</v>
+        <v>816866</v>
       </c>
       <c r="H4" t="n">
-        <v>22448877</v>
+        <v>35242867</v>
       </c>
       <c r="I4" t="n">
-        <v>1525612</v>
+        <v>1185540</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>Z</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>42.27</v>
+        <v>43.07</v>
       </c>
       <c r="G5" t="n">
-        <v>1000000</v>
+        <v>521170</v>
       </c>
       <c r="H5" t="n">
-        <v>42275000</v>
+        <v>22448877</v>
       </c>
       <c r="I5" t="n">
-        <v>652520</v>
+        <v>1525612</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>43.14</v>
+        <v>42.27</v>
       </c>
       <c r="G6" t="n">
-        <v>816866</v>
+        <v>1000000</v>
       </c>
       <c r="H6" t="n">
-        <v>35242867</v>
+        <v>42275000</v>
       </c>
       <c r="I6" t="n">
-        <v>1185540</v>
+        <v>652520</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>43.07</v>
+        <v>43.14</v>
       </c>
       <c r="G7" t="n">
-        <v>521170</v>
+        <v>816866</v>
       </c>
       <c r="H7" t="n">
-        <v>22448877</v>
+        <v>35242867</v>
       </c>
       <c r="I7" t="n">
-        <v>1525612</v>
+        <v>1185540</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -740,22 +740,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UHG</t>
+          <t>ZG</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nieri Pennington W.</t>
+          <t>Hoag Jay C</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Co-Exec. VP - Construction</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>43.07</v>
       </c>
       <c r="G8" t="n">
-        <v>1269659</v>
+        <v>521170</v>
       </c>
       <c r="H8" t="n">
-        <v>6348295</v>
+        <v>22448877</v>
       </c>
       <c r="I8" t="n">
-        <v>980000</v>
+        <v>1525612</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Jun 11 09:19 PM</t>
+          <t>Jun 11 09:59 PM</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -811,13 +811,13 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>133360</v>
+        <v>1269659</v>
       </c>
       <c r="H9" t="n">
-        <v>666800</v>
+        <v>6348295</v>
       </c>
       <c r="I9" t="n">
-        <v>133360</v>
+        <v>980000</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -833,17 +833,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nieri Patrick Michael</t>
+          <t>Nieri Pennington W.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Co-Exec. VP - Construction</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -855,17 +855,17 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>144829</v>
+        <v>133360</v>
       </c>
       <c r="H10" t="n">
-        <v>724145</v>
+        <v>666800</v>
       </c>
       <c r="I10" t="n">
-        <v>144829</v>
+        <v>133360</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Jun 11 09:05 PM</t>
+          <t>Jun 11 09:19 PM</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -899,13 +899,13 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>133320</v>
+        <v>144829</v>
       </c>
       <c r="H11" t="n">
-        <v>666600</v>
+        <v>724145</v>
       </c>
       <c r="I11" t="n">
-        <v>133320</v>
+        <v>144829</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lincks Maigan Nieri</t>
+          <t>Nieri Patrick Michael</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -943,17 +943,17 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>144830</v>
+        <v>133320</v>
       </c>
       <c r="H12" t="n">
-        <v>724150</v>
+        <v>666600</v>
       </c>
       <c r="I12" t="n">
-        <v>144830</v>
+        <v>133320</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Jun 11 08:41 PM</t>
+          <t>Jun 11 09:05 PM</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 07</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -987,13 +987,13 @@
         <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>133320</v>
+        <v>144830</v>
       </c>
       <c r="H13" t="n">
-        <v>666600</v>
+        <v>724150</v>
       </c>
       <c r="I13" t="n">
-        <v>133320</v>
+        <v>144830</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1009,12 +1009,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nieri Michael P.</t>
+          <t>Lincks Maigan Nieri</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Chairman and CEO</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1031,34 +1031,34 @@
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>621328</v>
+        <v>133320</v>
       </c>
       <c r="H14" t="n">
-        <v>3106640</v>
+        <v>666600</v>
       </c>
       <c r="I14" t="n">
-        <v>621328</v>
+        <v>133320</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Jun 11 08:20 PM</t>
+          <t>Jun 11 08:41 PM</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>OPAD</t>
+          <t>UHG</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sella Roberto Marco</t>
+          <t>Nieri Michael P.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chairman and CEO</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1072,20 +1072,20 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.89</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>15104</v>
+        <v>621328</v>
       </c>
       <c r="H15" t="n">
-        <v>73810</v>
+        <v>3106640</v>
       </c>
       <c r="I15" t="n">
-        <v>3104064</v>
+        <v>621328</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Jun 11 07:57 PM</t>
+          <t>Jun 11 08:20 PM</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1116,16 +1116,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.88</v>
+        <v>4.89</v>
       </c>
       <c r="G16" t="n">
-        <v>14386</v>
+        <v>15104</v>
       </c>
       <c r="H16" t="n">
-        <v>70196</v>
+        <v>73810</v>
       </c>
       <c r="I16" t="n">
-        <v>3118450</v>
+        <v>3104064</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1136,22 +1136,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PDYN</t>
+          <t>OPAD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GARAGIC DENIS</t>
+          <t>Sella Roberto Marco</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CHIEF TECHNOLOGY OFFICER</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1160,42 +1160,42 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.8</v>
+        <v>4.88</v>
       </c>
       <c r="G17" t="n">
-        <v>1000</v>
+        <v>14386</v>
       </c>
       <c r="H17" t="n">
-        <v>1800</v>
+        <v>70196</v>
       </c>
       <c r="I17" t="n">
-        <v>552743</v>
+        <v>3118450</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Jun 11 07:20 PM</t>
+          <t>Jun 11 07:57 PM</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MCB</t>
+          <t>PDYN</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Wolf George J Jr</t>
+          <t>GARAGIC DENIS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CHIEF TECHNOLOGY OFFICER</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1204,20 +1204,20 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>39</v>
+        <v>1.8</v>
       </c>
       <c r="G18" t="n">
-        <v>97</v>
+        <v>1000</v>
       </c>
       <c r="H18" t="n">
-        <v>3783</v>
+        <v>1800</v>
       </c>
       <c r="I18" t="n">
-        <v>26812</v>
+        <v>552743</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Jun 11 07:07 PM</t>
+          <t>Jun 11 07:20 PM</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 07</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1251,13 +1251,13 @@
         <v>39</v>
       </c>
       <c r="G19" t="n">
-        <v>1183</v>
+        <v>97</v>
       </c>
       <c r="H19" t="n">
-        <v>46137</v>
+        <v>3783</v>
       </c>
       <c r="I19" t="n">
-        <v>27995</v>
+        <v>26812</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1268,22 +1268,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CDTX</t>
+          <t>MCB</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Stein Jeffrey</t>
+          <t>Wolf George J Jr</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>President &amp; CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 10</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1292,42 +1292,42 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>13.21</v>
+        <v>39</v>
       </c>
       <c r="G20" t="n">
-        <v>8000</v>
+        <v>1183</v>
       </c>
       <c r="H20" t="n">
-        <v>105680</v>
+        <v>46137</v>
       </c>
       <c r="I20" t="n">
-        <v>24580</v>
+        <v>27995</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Jun 11 06:26 PM</t>
+          <t>Jun 11 07:07 PM</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CSV</t>
+          <t>CDTX</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fargason Charles</t>
+          <t>Stein Jeffrey</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>President &amp; CEO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 07</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1336,20 +1336,20 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>28.4</v>
+        <v>13.21</v>
       </c>
       <c r="G21" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="H21" t="n">
-        <v>56800</v>
+        <v>105680</v>
       </c>
       <c r="I21" t="n">
-        <v>18005</v>
+        <v>24580</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Jun 11 06:23 PM</t>
+          <t>Jun 11 06:26 PM</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 10</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1380,16 +1380,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>28.05</v>
+        <v>28.4</v>
       </c>
       <c r="G22" t="n">
         <v>2000</v>
       </c>
       <c r="H22" t="n">
-        <v>56100</v>
+        <v>56800</v>
       </c>
       <c r="I22" t="n">
-        <v>20005</v>
+        <v>18005</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1400,12 +1400,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FTHM</t>
+          <t>CSV</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Flanders Scott N</t>
+          <t>Fargason Charles</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1424,20 +1424,20 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.89</v>
+        <v>28.05</v>
       </c>
       <c r="G23" t="n">
-        <v>15832</v>
+        <v>2000</v>
       </c>
       <c r="H23" t="n">
-        <v>29981</v>
+        <v>56100</v>
       </c>
       <c r="I23" t="n">
-        <v>671210</v>
+        <v>20005</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Jun 11 05:53 PM</t>
+          <t>Jun 11 06:23 PM</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 07</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1468,16 +1468,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="G24" t="n">
-        <v>10000</v>
+        <v>15832</v>
       </c>
       <c r="H24" t="n">
-        <v>18639</v>
+        <v>29981</v>
       </c>
       <c r="I24" t="n">
-        <v>681210</v>
+        <v>671210</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1488,22 +1488,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CWBC</t>
+          <t>FTHM</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RAMOS ANTHONY KENNETH</t>
+          <t>Flanders Scott N</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EXECUTIVE VICE PRESIDENT</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 10</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1512,42 +1512,42 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>17.25</v>
+        <v>1.86</v>
       </c>
       <c r="G25" t="n">
-        <v>13400</v>
+        <v>10000</v>
       </c>
       <c r="H25" t="n">
-        <v>231150</v>
+        <v>18639</v>
       </c>
       <c r="I25" t="n">
-        <v>22381</v>
+        <v>681210</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Jun 11 05:48 PM</t>
+          <t>Jun 11 05:53 PM</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FPAY</t>
+          <t>CWBC</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Dvorkin Howard</t>
+          <t>RAMOS ANTHONY KENNETH</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>EXECUTIVE VICE PRESIDENT</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jun 06</t>
+          <t>Jun 07</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1556,20 +1556,20 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.12</v>
+        <v>17.25</v>
       </c>
       <c r="G26" t="n">
-        <v>6400</v>
+        <v>13400</v>
       </c>
       <c r="H26" t="n">
-        <v>7168</v>
+        <v>231150</v>
       </c>
       <c r="I26" t="n">
-        <v>4326245</v>
+        <v>22381</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Jun 11 05:41 PM</t>
+          <t>Jun 11 05:48 PM</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 06</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1603,13 +1603,13 @@
         <v>1.12</v>
       </c>
       <c r="G27" t="n">
-        <v>64054</v>
+        <v>6400</v>
       </c>
       <c r="H27" t="n">
-        <v>71740</v>
+        <v>7168</v>
       </c>
       <c r="I27" t="n">
-        <v>4390299</v>
+        <v>4326245</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 07</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="G28" t="n">
-        <v>20467</v>
+        <v>64054</v>
       </c>
       <c r="H28" t="n">
-        <v>23537</v>
+        <v>71740</v>
       </c>
       <c r="I28" t="n">
-        <v>4410766</v>
+        <v>4390299</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1664,17 +1664,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TMCI</t>
+          <t>FPAY</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Treace John T.</t>
+          <t>Dvorkin Howard</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1688,42 +1688,42 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5.88</v>
+        <v>1.15</v>
       </c>
       <c r="G29" t="n">
-        <v>45000</v>
+        <v>20467</v>
       </c>
       <c r="H29" t="n">
-        <v>264600</v>
+        <v>23537</v>
       </c>
       <c r="I29" t="n">
-        <v>6388095</v>
+        <v>4410766</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Jun 11 05:30 PM</t>
+          <t>Jun 11 05:41 PM</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>TMCI</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Crutchfield Lisa</t>
+          <t>Treace John T.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1732,32 +1732,32 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>89.45999999999999</v>
+        <v>5.88</v>
       </c>
       <c r="G30" t="n">
-        <v>335</v>
+        <v>45000</v>
       </c>
       <c r="H30" t="n">
-        <v>29969</v>
+        <v>264600</v>
       </c>
       <c r="I30" t="n">
-        <v>32186</v>
+        <v>6388095</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Jun 11 05:11 PM</t>
+          <t>Jun 11 05:30 PM</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>VST</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Rizik Matthew</t>
+          <t>Crutchfield Lisa</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1776,20 +1776,20 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>14.22</v>
+        <v>89.45999999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>265</v>
+        <v>335</v>
       </c>
       <c r="H31" t="n">
-        <v>3768</v>
+        <v>29969</v>
       </c>
       <c r="I31" t="n">
-        <v>703992</v>
+        <v>32186</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Jun 11 05:07 PM</t>
+          <t>Jun 11 05:11 PM</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 10</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1820,16 +1820,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>14.33</v>
+        <v>14.22</v>
       </c>
       <c r="G32" t="n">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="H32" t="n">
-        <v>4371</v>
+        <v>3768</v>
       </c>
       <c r="I32" t="n">
-        <v>704297</v>
+        <v>703992</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1840,22 +1840,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>AEI</t>
+          <t>RKT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chan Heng Fai Ambrose</t>
+          <t>Rizik Matthew</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1864,20 +1864,20 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.1</v>
+        <v>14.33</v>
       </c>
       <c r="G33" t="n">
-        <v>50000</v>
+        <v>305</v>
       </c>
       <c r="H33" t="n">
-        <v>55000</v>
+        <v>4371</v>
       </c>
       <c r="I33" t="n">
-        <v>5443065</v>
+        <v>704297</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Jun 11 05:06 PM</t>
+          <t>Jun 11 05:07 PM</t>
         </is>
       </c>
     </row>
@@ -1899,27 +1899,71 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>Jun 07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H34" t="n">
+        <v>55000</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5443065</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Jun 11 05:06 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AEI</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Chan Heng Fai Ambrose</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Chief Executive Officer</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>Jun 10</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
         <v>1.01</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G35" t="n">
         <v>16567</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H35" t="n">
         <v>16748</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I35" t="n">
         <v>5459632</v>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>Jun 11 05:06 PM</t>
         </is>

--- a/salidas/latest-insiders-trading-Buy.xlsx
+++ b/salidas/latest-insiders-trading-Buy.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CTCX</t>
+          <t>FMNB</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cassaday Bryan J.</t>
+          <t>MACALI RALPH D</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chief Financial Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,37 +500,37 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.5</v>
+        <v>11.87</v>
       </c>
       <c r="G2" t="n">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="H2" t="n">
-        <v>1100</v>
+        <v>5757</v>
       </c>
       <c r="I2" t="n">
-        <v>2775</v>
+        <v>1037</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Jun 12 07:59 AM</t>
+          <t>Jun 12 08:24 AM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCDA</t>
+          <t>CTCX</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Altman Peter</t>
+          <t>Cassaday Bryan J.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>President and CEO</t>
+          <t>Chief Financial Officer</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -544,42 +544,42 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.36</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="H3" t="n">
-        <v>3360</v>
+        <v>1100</v>
       </c>
       <c r="I3" t="n">
-        <v>38245</v>
+        <v>2775</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Jun 12 07:00 AM</t>
+          <t>Jun 12 07:59 AM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>BCDA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hoag Jay C</t>
+          <t>Altman Peter</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>President and CEO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -588,20 +588,20 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>42.27</v>
+        <v>3.36</v>
       </c>
       <c r="G4" t="n">
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>42275000</v>
+        <v>3360</v>
       </c>
       <c r="I4" t="n">
-        <v>652520</v>
+        <v>38245</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Jun 11 09:59 PM</t>
+          <t>Jun 12 07:00 AM</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>43.14</v>
+        <v>42.27</v>
       </c>
       <c r="G5" t="n">
-        <v>816866</v>
+        <v>1000000</v>
       </c>
       <c r="H5" t="n">
-        <v>35242867</v>
+        <v>42275000</v>
       </c>
       <c r="I5" t="n">
-        <v>1185540</v>
+        <v>652520</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>43.07</v>
+        <v>43.14</v>
       </c>
       <c r="G6" t="n">
-        <v>521170</v>
+        <v>816866</v>
       </c>
       <c r="H6" t="n">
-        <v>22448877</v>
+        <v>35242867</v>
       </c>
       <c r="I6" t="n">
-        <v>1525612</v>
+        <v>1185540</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>Z</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>42.27</v>
+        <v>43.07</v>
       </c>
       <c r="G7" t="n">
-        <v>1000000</v>
+        <v>521170</v>
       </c>
       <c r="H7" t="n">
-        <v>42275000</v>
+        <v>22448877</v>
       </c>
       <c r="I7" t="n">
-        <v>652520</v>
+        <v>1525612</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>43.14</v>
+        <v>42.27</v>
       </c>
       <c r="G8" t="n">
-        <v>816866</v>
+        <v>1000000</v>
       </c>
       <c r="H8" t="n">
-        <v>35242867</v>
+        <v>42275000</v>
       </c>
       <c r="I8" t="n">
-        <v>1185540</v>
+        <v>652520</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -808,16 +808,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>43.07</v>
+        <v>43.14</v>
       </c>
       <c r="G9" t="n">
-        <v>521170</v>
+        <v>816866</v>
       </c>
       <c r="H9" t="n">
-        <v>22448877</v>
+        <v>35242867</v>
       </c>
       <c r="I9" t="n">
-        <v>1525612</v>
+        <v>1185540</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -828,22 +828,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UHG</t>
+          <t>ZG</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nieri Pennington W.</t>
+          <t>Hoag Jay C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Co-Exec. VP - Construction</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -852,20 +852,20 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>43.07</v>
       </c>
       <c r="G10" t="n">
-        <v>1269659</v>
+        <v>521170</v>
       </c>
       <c r="H10" t="n">
-        <v>6348295</v>
+        <v>22448877</v>
       </c>
       <c r="I10" t="n">
-        <v>980000</v>
+        <v>1525612</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Jun 11 09:19 PM</t>
+          <t>Jun 11 09:59 PM</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -899,13 +899,13 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>133360</v>
+        <v>1269659</v>
       </c>
       <c r="H11" t="n">
-        <v>666800</v>
+        <v>6348295</v>
       </c>
       <c r="I11" t="n">
-        <v>133360</v>
+        <v>980000</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -921,17 +921,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nieri Patrick Michael</t>
+          <t>Nieri Pennington W.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Co-Exec. VP - Construction</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -943,17 +943,17 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>144829</v>
+        <v>133360</v>
       </c>
       <c r="H12" t="n">
-        <v>724145</v>
+        <v>666800</v>
       </c>
       <c r="I12" t="n">
-        <v>144829</v>
+        <v>133360</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Jun 11 09:05 PM</t>
+          <t>Jun 11 09:19 PM</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 07</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -987,13 +987,13 @@
         <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>133320</v>
+        <v>144829</v>
       </c>
       <c r="H13" t="n">
-        <v>666600</v>
+        <v>724145</v>
       </c>
       <c r="I13" t="n">
-        <v>133320</v>
+        <v>144829</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lincks Maigan Nieri</t>
+          <t>Nieri Patrick Michael</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 10</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1031,17 +1031,17 @@
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>144830</v>
+        <v>133320</v>
       </c>
       <c r="H14" t="n">
-        <v>724150</v>
+        <v>666600</v>
       </c>
       <c r="I14" t="n">
-        <v>144830</v>
+        <v>133320</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Jun 11 08:41 PM</t>
+          <t>Jun 11 09:05 PM</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 07</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1075,13 +1075,13 @@
         <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>133320</v>
+        <v>144830</v>
       </c>
       <c r="H15" t="n">
-        <v>666600</v>
+        <v>724150</v>
       </c>
       <c r="I15" t="n">
-        <v>133320</v>
+        <v>144830</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1097,12 +1097,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nieri Michael P.</t>
+          <t>Lincks Maigan Nieri</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Chairman and CEO</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1119,34 +1119,34 @@
         <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>621328</v>
+        <v>133320</v>
       </c>
       <c r="H16" t="n">
-        <v>3106640</v>
+        <v>666600</v>
       </c>
       <c r="I16" t="n">
-        <v>621328</v>
+        <v>133320</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Jun 11 08:20 PM</t>
+          <t>Jun 11 08:41 PM</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OPAD</t>
+          <t>UHG</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sella Roberto Marco</t>
+          <t>Nieri Michael P.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chairman and CEO</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1160,20 +1160,20 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.89</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>15104</v>
+        <v>621328</v>
       </c>
       <c r="H17" t="n">
-        <v>73810</v>
+        <v>3106640</v>
       </c>
       <c r="I17" t="n">
-        <v>3104064</v>
+        <v>621328</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Jun 11 07:57 PM</t>
+          <t>Jun 11 08:20 PM</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1204,16 +1204,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.88</v>
+        <v>4.89</v>
       </c>
       <c r="G18" t="n">
-        <v>14386</v>
+        <v>15104</v>
       </c>
       <c r="H18" t="n">
-        <v>70196</v>
+        <v>73810</v>
       </c>
       <c r="I18" t="n">
-        <v>3118450</v>
+        <v>3104064</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1224,22 +1224,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PDYN</t>
+          <t>OPAD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GARAGIC DENIS</t>
+          <t>Sella Roberto Marco</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CHIEF TECHNOLOGY OFFICER</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1248,42 +1248,42 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.8</v>
+        <v>4.88</v>
       </c>
       <c r="G19" t="n">
-        <v>1000</v>
+        <v>14386</v>
       </c>
       <c r="H19" t="n">
-        <v>1800</v>
+        <v>70196</v>
       </c>
       <c r="I19" t="n">
-        <v>552743</v>
+        <v>3118450</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Jun 11 07:20 PM</t>
+          <t>Jun 11 07:57 PM</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MCB</t>
+          <t>PDYN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Wolf George J Jr</t>
+          <t>GARAGIC DENIS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CHIEF TECHNOLOGY OFFICER</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 10</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1292,20 +1292,20 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>39</v>
+        <v>1.8</v>
       </c>
       <c r="G20" t="n">
-        <v>97</v>
+        <v>1000</v>
       </c>
       <c r="H20" t="n">
-        <v>3783</v>
+        <v>1800</v>
       </c>
       <c r="I20" t="n">
-        <v>26812</v>
+        <v>552743</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Jun 11 07:07 PM</t>
+          <t>Jun 11 07:20 PM</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 07</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1339,13 +1339,13 @@
         <v>39</v>
       </c>
       <c r="G21" t="n">
-        <v>1183</v>
+        <v>97</v>
       </c>
       <c r="H21" t="n">
-        <v>46137</v>
+        <v>3783</v>
       </c>
       <c r="I21" t="n">
-        <v>27995</v>
+        <v>26812</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1356,22 +1356,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CDTX</t>
+          <t>MCB</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Stein Jeffrey</t>
+          <t>Wolf George J Jr</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>President &amp; CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 10</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1380,42 +1380,42 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>13.21</v>
+        <v>39</v>
       </c>
       <c r="G22" t="n">
-        <v>8000</v>
+        <v>1183</v>
       </c>
       <c r="H22" t="n">
-        <v>105680</v>
+        <v>46137</v>
       </c>
       <c r="I22" t="n">
-        <v>24580</v>
+        <v>27995</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Jun 11 06:26 PM</t>
+          <t>Jun 11 07:07 PM</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CSV</t>
+          <t>CDTX</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fargason Charles</t>
+          <t>Stein Jeffrey</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>President &amp; CEO</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 07</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1424,20 +1424,20 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>28.4</v>
+        <v>13.21</v>
       </c>
       <c r="G23" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="H23" t="n">
-        <v>56800</v>
+        <v>105680</v>
       </c>
       <c r="I23" t="n">
-        <v>18005</v>
+        <v>24580</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Jun 11 06:23 PM</t>
+          <t>Jun 11 06:26 PM</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 10</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1468,16 +1468,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>28.05</v>
+        <v>28.4</v>
       </c>
       <c r="G24" t="n">
         <v>2000</v>
       </c>
       <c r="H24" t="n">
-        <v>56100</v>
+        <v>56800</v>
       </c>
       <c r="I24" t="n">
-        <v>20005</v>
+        <v>18005</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1488,12 +1488,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FTHM</t>
+          <t>CSV</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Flanders Scott N</t>
+          <t>Fargason Charles</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1512,20 +1512,20 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.89</v>
+        <v>28.05</v>
       </c>
       <c r="G25" t="n">
-        <v>15832</v>
+        <v>2000</v>
       </c>
       <c r="H25" t="n">
-        <v>29981</v>
+        <v>56100</v>
       </c>
       <c r="I25" t="n">
-        <v>671210</v>
+        <v>20005</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Jun 11 05:53 PM</t>
+          <t>Jun 11 06:23 PM</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 07</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1556,16 +1556,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="G26" t="n">
-        <v>10000</v>
+        <v>15832</v>
       </c>
       <c r="H26" t="n">
-        <v>18639</v>
+        <v>29981</v>
       </c>
       <c r="I26" t="n">
-        <v>681210</v>
+        <v>671210</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1576,22 +1576,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CWBC</t>
+          <t>FTHM</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RAMOS ANTHONY KENNETH</t>
+          <t>Flanders Scott N</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EXECUTIVE VICE PRESIDENT</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 10</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1600,42 +1600,42 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>17.25</v>
+        <v>1.86</v>
       </c>
       <c r="G27" t="n">
-        <v>13400</v>
+        <v>10000</v>
       </c>
       <c r="H27" t="n">
-        <v>231150</v>
+        <v>18639</v>
       </c>
       <c r="I27" t="n">
-        <v>22381</v>
+        <v>681210</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Jun 11 05:48 PM</t>
+          <t>Jun 11 05:53 PM</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FPAY</t>
+          <t>CWBC</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dvorkin Howard</t>
+          <t>RAMOS ANTHONY KENNETH</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>EXECUTIVE VICE PRESIDENT</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Jun 06</t>
+          <t>Jun 07</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.12</v>
+        <v>17.25</v>
       </c>
       <c r="G28" t="n">
-        <v>6400</v>
+        <v>13400</v>
       </c>
       <c r="H28" t="n">
-        <v>7168</v>
+        <v>231150</v>
       </c>
       <c r="I28" t="n">
-        <v>4326245</v>
+        <v>22381</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Jun 11 05:41 PM</t>
+          <t>Jun 11 05:48 PM</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 06</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1691,13 +1691,13 @@
         <v>1.12</v>
       </c>
       <c r="G29" t="n">
-        <v>64054</v>
+        <v>6400</v>
       </c>
       <c r="H29" t="n">
-        <v>71740</v>
+        <v>7168</v>
       </c>
       <c r="I29" t="n">
-        <v>4390299</v>
+        <v>4326245</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 07</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="G30" t="n">
-        <v>20467</v>
+        <v>64054</v>
       </c>
       <c r="H30" t="n">
-        <v>23537</v>
+        <v>71740</v>
       </c>
       <c r="I30" t="n">
-        <v>4410766</v>
+        <v>4390299</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1752,17 +1752,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TMCI</t>
+          <t>FPAY</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Treace John T.</t>
+          <t>Dvorkin Howard</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1776,42 +1776,42 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5.88</v>
+        <v>1.15</v>
       </c>
       <c r="G31" t="n">
-        <v>45000</v>
+        <v>20467</v>
       </c>
       <c r="H31" t="n">
-        <v>264600</v>
+        <v>23537</v>
       </c>
       <c r="I31" t="n">
-        <v>6388095</v>
+        <v>4410766</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Jun 11 05:30 PM</t>
+          <t>Jun 11 05:41 PM</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>TMCI</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Crutchfield Lisa</t>
+          <t>Treace John T.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1820,32 +1820,32 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>89.45999999999999</v>
+        <v>5.88</v>
       </c>
       <c r="G32" t="n">
-        <v>335</v>
+        <v>45000</v>
       </c>
       <c r="H32" t="n">
-        <v>29969</v>
+        <v>264600</v>
       </c>
       <c r="I32" t="n">
-        <v>32186</v>
+        <v>6388095</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Jun 11 05:11 PM</t>
+          <t>Jun 11 05:30 PM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>VST</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Rizik Matthew</t>
+          <t>Crutchfield Lisa</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1864,20 +1864,20 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>14.22</v>
+        <v>89.45999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>265</v>
+        <v>335</v>
       </c>
       <c r="H33" t="n">
-        <v>3768</v>
+        <v>29969</v>
       </c>
       <c r="I33" t="n">
-        <v>703992</v>
+        <v>32186</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Jun 11 05:07 PM</t>
+          <t>Jun 11 05:11 PM</t>
         </is>
       </c>
     </row>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 10</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1908,16 +1908,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>14.33</v>
+        <v>14.22</v>
       </c>
       <c r="G34" t="n">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="H34" t="n">
-        <v>4371</v>
+        <v>3768</v>
       </c>
       <c r="I34" t="n">
-        <v>704297</v>
+        <v>703992</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1928,22 +1928,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AEI</t>
+          <t>RKT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chan Heng Fai Ambrose</t>
+          <t>Rizik Matthew</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1952,20 +1952,20 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.1</v>
+        <v>14.33</v>
       </c>
       <c r="G35" t="n">
-        <v>50000</v>
+        <v>305</v>
       </c>
       <c r="H35" t="n">
-        <v>55000</v>
+        <v>4371</v>
       </c>
       <c r="I35" t="n">
-        <v>5443065</v>
+        <v>704297</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Jun 11 05:06 PM</t>
+          <t>Jun 11 05:07 PM</t>
         </is>
       </c>
     </row>
@@ -1987,27 +1987,71 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>Jun 07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H36" t="n">
+        <v>55000</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5443065</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Jun 11 05:06 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AEI</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Chan Heng Fai Ambrose</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Chief Executive Officer</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>Jun 10</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
         <v>1.01</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G37" t="n">
         <v>16567</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H37" t="n">
         <v>16748</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I37" t="n">
         <v>5459632</v>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>Jun 11 05:06 PM</t>
         </is>

--- a/salidas/latest-insiders-trading-Buy.xlsx
+++ b/salidas/latest-insiders-trading-Buy.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FMNB</t>
+          <t>TURN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MACALI RALPH D</t>
+          <t>Gift Alicia M</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Treasurer, Secretary</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,42 +500,42 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>11.87</v>
+        <v>3.74</v>
       </c>
       <c r="G2" t="n">
-        <v>485</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>5757</v>
+        <v>3740</v>
       </c>
       <c r="I2" t="n">
-        <v>1037</v>
+        <v>45465</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Jun 12 08:24 AM</t>
+          <t>Jun 14 08:45 AM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CTCX</t>
+          <t>NRDY</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cassaday Bryan J.</t>
+          <t>Cohn Charles K.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Chief Financial Officer</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -544,42 +544,42 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>440</v>
+        <v>500000</v>
       </c>
       <c r="H3" t="n">
-        <v>1100</v>
+        <v>900000</v>
       </c>
       <c r="I3" t="n">
-        <v>2775</v>
+        <v>1422976</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Jun 12 07:59 AM</t>
+          <t>Jun 14 08:44 AM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCDA</t>
+          <t>FTCI</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Altman Peter</t>
+          <t>Chatila Ahmad R</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>President and CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -588,32 +588,32 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.36</v>
+        <v>0.44</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>114726</v>
       </c>
       <c r="H4" t="n">
-        <v>3360</v>
+        <v>50479</v>
       </c>
       <c r="I4" t="n">
-        <v>38245</v>
+        <v>1082184</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Jun 12 07:00 AM</t>
+          <t>Jun 14 08:44 AM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>CTCX</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hoag Jay C</t>
+          <t>Upton Richard A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -632,42 +632,42 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>42.27</v>
+        <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>1000000</v>
+        <v>2000</v>
       </c>
       <c r="H5" t="n">
-        <v>42275000</v>
+        <v>4409</v>
       </c>
       <c r="I5" t="n">
-        <v>652520</v>
+        <v>6400</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Jun 11 09:59 PM</t>
+          <t>Jun 14 08:21 AM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>GENK</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hoag Jay C</t>
+          <t>Kim David Wook Jin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Co-Chief Executive Officer</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -676,37 +676,37 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>43.14</v>
+        <v>10.69</v>
       </c>
       <c r="G6" t="n">
-        <v>816866</v>
+        <v>2000</v>
       </c>
       <c r="H6" t="n">
-        <v>35242867</v>
+        <v>21380</v>
       </c>
       <c r="I6" t="n">
-        <v>1185540</v>
+        <v>166652</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Jun 11 09:59 PM</t>
+          <t>Jun 13 09:31 PM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>NEXI</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hoag Jay C</t>
+          <t>Jones Kristi</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>President and CEO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -720,32 +720,32 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>43.07</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>521170</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>22448877</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1525612</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Jun 11 09:59 PM</t>
+          <t>Jun 13 07:58 PM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>FAT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hoag Jay C</t>
+          <t>WIEDERHORN ANDREW</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>42.27</v>
+        <v>14.21</v>
       </c>
       <c r="G8" t="n">
-        <v>1000000</v>
+        <v>646</v>
       </c>
       <c r="H8" t="n">
-        <v>42275000</v>
+        <v>9180</v>
       </c>
       <c r="I8" t="n">
-        <v>652520</v>
+        <v>1643</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Jun 11 09:59 PM</t>
+          <t>Jun 13 07:57 PM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>VFC</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hoag Jay C</t>
+          <t>Carucci Richard</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -808,32 +808,32 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>43.14</v>
+        <v>13.78</v>
       </c>
       <c r="G9" t="n">
-        <v>816866</v>
+        <v>25000</v>
       </c>
       <c r="H9" t="n">
-        <v>35242867</v>
+        <v>344495</v>
       </c>
       <c r="I9" t="n">
-        <v>1185540</v>
+        <v>215130</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Jun 11 09:59 PM</t>
+          <t>Jun 13 07:30 PM</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>SPWH</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hoag Jay C</t>
+          <t>Sansom Steven W.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -852,42 +852,42 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>43.07</v>
+        <v>2.91</v>
       </c>
       <c r="G10" t="n">
-        <v>521170</v>
+        <v>10000</v>
       </c>
       <c r="H10" t="n">
-        <v>22448877</v>
+        <v>29135</v>
       </c>
       <c r="I10" t="n">
-        <v>1525612</v>
+        <v>90000</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Jun 11 09:59 PM</t>
+          <t>Jun 13 07:12 PM</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UHG</t>
+          <t>DTC</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nieri Pennington W.</t>
+          <t>METZ CHRISTOPHER T</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Co-Exec. VP - Construction</t>
+          <t>President &amp; CEO</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -896,42 +896,42 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>1.94</v>
       </c>
       <c r="G11" t="n">
-        <v>1269659</v>
+        <v>52366</v>
       </c>
       <c r="H11" t="n">
-        <v>6348295</v>
+        <v>101721</v>
       </c>
       <c r="I11" t="n">
-        <v>980000</v>
+        <v>152366</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Jun 11 09:19 PM</t>
+          <t>Jun 13 06:55 PM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UHG</t>
+          <t>DTC</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nieri Pennington W.</t>
+          <t>METZ CHRISTOPHER T</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Co-Exec. VP - Construction</t>
+          <t>President &amp; CEO</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -940,42 +940,42 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>1.98</v>
       </c>
       <c r="G12" t="n">
-        <v>133360</v>
+        <v>48324</v>
       </c>
       <c r="H12" t="n">
-        <v>666800</v>
+        <v>95662</v>
       </c>
       <c r="I12" t="n">
-        <v>133360</v>
+        <v>200690</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Jun 11 09:19 PM</t>
+          <t>Jun 13 06:55 PM</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UHG</t>
+          <t>DTC</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nieri Patrick Michael</t>
+          <t>METZ CHRISTOPHER T</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>President &amp; CEO</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -984,42 +984,42 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>1.97</v>
       </c>
       <c r="G13" t="n">
-        <v>144829</v>
+        <v>49310</v>
       </c>
       <c r="H13" t="n">
-        <v>724145</v>
+        <v>97234</v>
       </c>
       <c r="I13" t="n">
-        <v>144829</v>
+        <v>250000</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Jun 11 09:05 PM</t>
+          <t>Jun 13 06:55 PM</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UHG</t>
+          <t>ZOM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nieri Patrick Michael</t>
+          <t>Klass Russell Kevin</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Vice President of Sales</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1028,42 +1028,42 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>0.16</v>
       </c>
       <c r="G14" t="n">
-        <v>133320</v>
+        <v>299993</v>
       </c>
       <c r="H14" t="n">
-        <v>666600</v>
+        <v>46529</v>
       </c>
       <c r="I14" t="n">
-        <v>133320</v>
+        <v>2000050</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Jun 11 09:05 PM</t>
+          <t>Jun 13 06:32 PM</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UHG</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Lincks Maigan Nieri</t>
+          <t>KRUSZEWSKI RONALD J</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1072,42 +1072,42 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G15" t="n">
-        <v>144830</v>
+        <v>8544</v>
       </c>
       <c r="H15" t="n">
-        <v>724150</v>
+        <v>38448</v>
       </c>
       <c r="I15" t="n">
-        <v>144830</v>
+        <v>8544</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Jun 11 08:41 PM</t>
+          <t>Jun 13 06:14 PM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UHG</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Lincks Maigan Nieri</t>
+          <t>KRUSZEWSKI RONALD J</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1116,42 +1116,42 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>4.57</v>
       </c>
       <c r="G16" t="n">
-        <v>133320</v>
+        <v>41098</v>
       </c>
       <c r="H16" t="n">
-        <v>666600</v>
+        <v>187818</v>
       </c>
       <c r="I16" t="n">
-        <v>133320</v>
+        <v>49642</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Jun 11 08:41 PM</t>
+          <t>Jun 13 06:14 PM</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UHG</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nieri Michael P.</t>
+          <t>KRUSZEWSKI RONALD J</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Chairman and CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1160,42 +1160,42 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="G17" t="n">
-        <v>621328</v>
+        <v>50358</v>
       </c>
       <c r="H17" t="n">
-        <v>3106640</v>
+        <v>231647</v>
       </c>
       <c r="I17" t="n">
-        <v>621328</v>
+        <v>100000</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Jun 11 08:20 PM</t>
+          <t>Jun 13 06:14 PM</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OPAD</t>
+          <t>ACRS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sella Roberto Marco</t>
+          <t>Leonard Braden Michael</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1204,42 +1204,42 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.89</v>
+        <v>1.08</v>
       </c>
       <c r="G18" t="n">
-        <v>15104</v>
+        <v>1000000</v>
       </c>
       <c r="H18" t="n">
-        <v>73810</v>
+        <v>1080000</v>
       </c>
       <c r="I18" t="n">
-        <v>3104064</v>
+        <v>10395934</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Jun 11 07:57 PM</t>
+          <t>Jun 13 06:04 PM</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OPAD</t>
+          <t>ACRS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sella Roberto Marco</t>
+          <t>Leonard Braden Michael</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1248,42 +1248,42 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.88</v>
+        <v>1.14</v>
       </c>
       <c r="G19" t="n">
-        <v>14386</v>
+        <v>82579</v>
       </c>
       <c r="H19" t="n">
-        <v>70196</v>
+        <v>94140</v>
       </c>
       <c r="I19" t="n">
-        <v>3118450</v>
+        <v>10478513</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Jun 11 07:57 PM</t>
+          <t>Jun 13 06:04 PM</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PDYN</t>
+          <t>ACRS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GARAGIC DENIS</t>
+          <t>Leonard Braden Michael</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CHIEF TECHNOLOGY OFFICER</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1292,32 +1292,32 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.8</v>
+        <v>1.15</v>
       </c>
       <c r="G20" t="n">
-        <v>1000</v>
+        <v>528621</v>
       </c>
       <c r="H20" t="n">
-        <v>1800</v>
+        <v>607757</v>
       </c>
       <c r="I20" t="n">
-        <v>552743</v>
+        <v>11007134</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Jun 11 07:20 PM</t>
+          <t>Jun 13 06:04 PM</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MCB</t>
+          <t>UBFO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Wolf George J Jr</t>
+          <t>GILL JAGROOP</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1336,42 +1336,42 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>39</v>
+        <v>7.2</v>
       </c>
       <c r="G21" t="n">
-        <v>97</v>
+        <v>8255</v>
       </c>
       <c r="H21" t="n">
-        <v>3783</v>
+        <v>59436</v>
       </c>
       <c r="I21" t="n">
-        <v>26812</v>
+        <v>1079667</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Jun 11 07:07 PM</t>
+          <t>Jun 13 06:00 PM</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MCB</t>
+          <t>CBU</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Wolf George J Jr</t>
+          <t>Karaivanov Dimitar</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>President &amp; CEO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1380,42 +1380,42 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>39</v>
+        <v>43.52</v>
       </c>
       <c r="G22" t="n">
-        <v>1183</v>
+        <v>1000</v>
       </c>
       <c r="H22" t="n">
-        <v>46137</v>
+        <v>43520</v>
       </c>
       <c r="I22" t="n">
-        <v>27995</v>
+        <v>19653</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Jun 11 07:07 PM</t>
+          <t>Jun 13 05:37 PM</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CDTX</t>
+          <t>GXO</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Stein Jeffrey</t>
+          <t>Wilson Malcolm</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>President &amp; CEO</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1424,42 +1424,42 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>13.21</v>
+        <v>49.95</v>
       </c>
       <c r="G23" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="H23" t="n">
-        <v>105680</v>
+        <v>499500</v>
       </c>
       <c r="I23" t="n">
-        <v>24580</v>
+        <v>100814</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Jun 11 06:26 PM</t>
+          <t>Jun 13 05:27 PM</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CSV</t>
+          <t>CATX</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fargason Charles</t>
+          <t>Spoor Johan M.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1468,37 +1468,37 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>28.4</v>
+        <v>1.17</v>
       </c>
       <c r="G24" t="n">
-        <v>2000</v>
+        <v>100000</v>
       </c>
       <c r="H24" t="n">
-        <v>56800</v>
+        <v>117430</v>
       </c>
       <c r="I24" t="n">
-        <v>18005</v>
+        <v>137572</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Jun 11 06:23 PM</t>
+          <t>Jun 13 05:19 PM</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CSV</t>
+          <t>TTSH</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fargason Charles</t>
+          <t>Fund 1 Investments, LLC</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1512,42 +1512,42 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>28.05</v>
+        <v>6.48</v>
       </c>
       <c r="G25" t="n">
-        <v>2000</v>
+        <v>17803</v>
       </c>
       <c r="H25" t="n">
-        <v>56100</v>
+        <v>115433</v>
       </c>
       <c r="I25" t="n">
-        <v>20005</v>
+        <v>6543238</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Jun 11 06:23 PM</t>
+          <t>Jun 13 05:11 PM</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FTHM</t>
+          <t>TTSH</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Flanders Scott N</t>
+          <t>Fund 1 Investments, LLC</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1556,42 +1556,42 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.89</v>
+        <v>6.66</v>
       </c>
       <c r="G26" t="n">
-        <v>15832</v>
+        <v>26000</v>
       </c>
       <c r="H26" t="n">
-        <v>29981</v>
+        <v>173274</v>
       </c>
       <c r="I26" t="n">
-        <v>671210</v>
+        <v>6569238</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Jun 11 05:53 PM</t>
+          <t>Jun 13 05:11 PM</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FTHM</t>
+          <t>TTSH</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Flanders Scott N</t>
+          <t>Fund 1 Investments, LLC</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1600,42 +1600,42 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.86</v>
+        <v>6.65</v>
       </c>
       <c r="G27" t="n">
-        <v>10000</v>
+        <v>30500</v>
       </c>
       <c r="H27" t="n">
-        <v>18639</v>
+        <v>202679</v>
       </c>
       <c r="I27" t="n">
-        <v>681210</v>
+        <v>6599738</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Jun 11 05:53 PM</t>
+          <t>Jun 13 05:11 PM</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CWBC</t>
+          <t>PRM</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RAMOS ANTHONY KENNETH</t>
+          <t>Valladares Jorge</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EXECUTIVE VICE PRESIDENT</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>17.25</v>
+        <v>7.15</v>
       </c>
       <c r="G28" t="n">
-        <v>13400</v>
+        <v>42000</v>
       </c>
       <c r="H28" t="n">
-        <v>231150</v>
+        <v>300258</v>
       </c>
       <c r="I28" t="n">
-        <v>22381</v>
+        <v>14000</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Jun 11 05:48 PM</t>
+          <t>Jun 13 05:06 PM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FPAY</t>
+          <t>PEGA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dvorkin Howard</t>
+          <t>Rowlands Sharon T</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Jun 06</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1688,372 +1688,20 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.12</v>
+        <v>58.63</v>
       </c>
       <c r="G29" t="n">
-        <v>6400</v>
+        <v>8600</v>
       </c>
       <c r="H29" t="n">
-        <v>7168</v>
+        <v>504218</v>
       </c>
       <c r="I29" t="n">
-        <v>4326245</v>
+        <v>30871</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Jun 11 05:41 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>FPAY</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Dvorkin Howard</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Jun 07</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="G30" t="n">
-        <v>64054</v>
-      </c>
-      <c r="H30" t="n">
-        <v>71740</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4390299</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Jun 11 05:41 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>FPAY</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Dvorkin Howard</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Jun 11</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="G31" t="n">
-        <v>20467</v>
-      </c>
-      <c r="H31" t="n">
-        <v>23537</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4410766</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Jun 11 05:41 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>TMCI</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Treace John T.</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Chief Executive Officer</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Jun 11</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="G32" t="n">
-        <v>45000</v>
-      </c>
-      <c r="H32" t="n">
-        <v>264600</v>
-      </c>
-      <c r="I32" t="n">
-        <v>6388095</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Jun 11 05:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>VST</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Crutchfield Lisa</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Jun 10</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>89.45999999999999</v>
-      </c>
-      <c r="G33" t="n">
-        <v>335</v>
-      </c>
-      <c r="H33" t="n">
-        <v>29969</v>
-      </c>
-      <c r="I33" t="n">
-        <v>32186</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Jun 11 05:11 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>RKT</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Rizik Matthew</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Jun 10</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>14.22</v>
-      </c>
-      <c r="G34" t="n">
-        <v>265</v>
-      </c>
-      <c r="H34" t="n">
-        <v>3768</v>
-      </c>
-      <c r="I34" t="n">
-        <v>703992</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Jun 11 05:07 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>RKT</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Rizik Matthew</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Jun 11</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>14.33</v>
-      </c>
-      <c r="G35" t="n">
-        <v>305</v>
-      </c>
-      <c r="H35" t="n">
-        <v>4371</v>
-      </c>
-      <c r="I35" t="n">
-        <v>704297</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Jun 11 05:07 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>AEI</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Chan Heng Fai Ambrose</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Chief Executive Officer</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Jun 07</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G36" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H36" t="n">
-        <v>55000</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5443065</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Jun 11 05:06 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>AEI</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Chan Heng Fai Ambrose</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Chief Executive Officer</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Jun 10</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="G37" t="n">
-        <v>16567</v>
-      </c>
-      <c r="H37" t="n">
-        <v>16748</v>
-      </c>
-      <c r="I37" t="n">
-        <v>5459632</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Jun 11 05:06 PM</t>
+          <t>Jun 13 05:06 PM</t>
         </is>
       </c>
     </row>

--- a/salidas/latest-insiders-trading-Buy.xlsx
+++ b/salidas/latest-insiders-trading-Buy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TURN</t>
+          <t>SNDA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gift Alicia M</t>
+          <t>Ribar Brandon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Treasurer, Secretary</t>
+          <t>President &amp; CEO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,42 +500,42 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.74</v>
+        <v>23.85</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>4200</v>
       </c>
       <c r="H2" t="n">
-        <v>3740</v>
+        <v>100170</v>
       </c>
       <c r="I2" t="n">
-        <v>45465</v>
+        <v>312255</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Jun 14 08:45 AM</t>
+          <t>Jun 14 01:07 PM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NRDY</t>
+          <t>RZLT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cohn Charles K.</t>
+          <t>ROBERTS BRIAN KENNETH</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Chief Medical Officer</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -544,42 +544,42 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>3.91</v>
       </c>
       <c r="G3" t="n">
-        <v>500000</v>
+        <v>4300</v>
       </c>
       <c r="H3" t="n">
-        <v>900000</v>
+        <v>16828</v>
       </c>
       <c r="I3" t="n">
-        <v>1422976</v>
+        <v>54352</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Jun 14 08:44 AM</t>
+          <t>Jun 14 12:51 PM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FTCI</t>
+          <t>RZLT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chatila Ahmad R</t>
+          <t>ROBERTS BRIAN KENNETH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Medical Officer</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -588,37 +588,37 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.44</v>
+        <v>3.91</v>
       </c>
       <c r="G4" t="n">
-        <v>114726</v>
+        <v>3300</v>
       </c>
       <c r="H4" t="n">
-        <v>50479</v>
+        <v>12916</v>
       </c>
       <c r="I4" t="n">
-        <v>1082184</v>
+        <v>13000</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Jun 14 08:44 AM</t>
+          <t>Jun 14 12:51 PM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CTCX</t>
+          <t>GLBZ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Upton Richard A</t>
+          <t>Hanna Mark Christopher</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>President and CEO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -632,37 +632,37 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="G5" t="n">
-        <v>2000</v>
+        <v>541</v>
       </c>
       <c r="H5" t="n">
-        <v>4409</v>
+        <v>2029</v>
       </c>
       <c r="I5" t="n">
-        <v>6400</v>
+        <v>4141</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Jun 14 08:21 AM</t>
+          <t>Jun 14 12:41 PM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GENK</t>
+          <t>RRBI</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kim David Wook Jin</t>
+          <t>Crowell Michael D.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Co-Chief Executive Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -676,42 +676,42 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10.69</v>
+        <v>46.15</v>
       </c>
       <c r="G6" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>21380</v>
+        <v>46150</v>
       </c>
       <c r="I6" t="n">
-        <v>166652</v>
+        <v>14330</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Jun 13 09:31 PM</t>
+          <t>Jun 14 12:39 PM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NEXI</t>
+          <t>RRBI</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jones Kristi</t>
+          <t>Crowell Michael D.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>President and CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -720,32 +720,32 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>46.31</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>46310</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>17350</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Jun 13 07:58 PM</t>
+          <t>Jun 14 12:39 PM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FAT</t>
+          <t>MSBI</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WIEDERHORN ANDREW</t>
+          <t>McDonnell Jeffrey M</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -764,42 +764,42 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>14.21</v>
+        <v>21.8</v>
       </c>
       <c r="G8" t="n">
-        <v>646</v>
+        <v>2290</v>
       </c>
       <c r="H8" t="n">
-        <v>9180</v>
+        <v>49922</v>
       </c>
       <c r="I8" t="n">
-        <v>1643</v>
+        <v>24245</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Jun 13 07:57 PM</t>
+          <t>Jun 14 12:35 PM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>VFC</t>
+          <t>RZLT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Carucci Richard</t>
+          <t>Evans Daron</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -808,42 +808,42 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>13.78</v>
+        <v>4.04</v>
       </c>
       <c r="G9" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="H9" t="n">
-        <v>344495</v>
+        <v>161568</v>
       </c>
       <c r="I9" t="n">
-        <v>215130</v>
+        <v>40000</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Jun 13 07:30 PM</t>
+          <t>Jun 14 12:06 PM</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SPWH</t>
+          <t>RCG</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sansom Steven W.</t>
+          <t>STAHL MURRAY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>President and CEO</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -852,42 +852,42 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.91</v>
+        <v>1.65</v>
       </c>
       <c r="G10" t="n">
-        <v>10000</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>29135</v>
+        <v>23</v>
       </c>
       <c r="I10" t="n">
-        <v>90000</v>
+        <v>5206</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Jun 13 07:12 PM</t>
+          <t>Jun 14 11:39 AM</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DTC</t>
+          <t>RCG</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>METZ CHRISTOPHER T</t>
+          <t>STAHL MURRAY</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>President &amp; CEO</t>
+          <t>President and CEO</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -896,37 +896,37 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="G11" t="n">
-        <v>52366</v>
+        <v>170</v>
       </c>
       <c r="H11" t="n">
-        <v>101721</v>
+        <v>280</v>
       </c>
       <c r="I11" t="n">
-        <v>152366</v>
+        <v>248532</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Jun 13 06:55 PM</t>
+          <t>Jun 14 11:39 AM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DTC</t>
+          <t>NFBK</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>METZ CHRISTOPHER T</t>
+          <t>Harrison Timothy C</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>President &amp; CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -940,37 +940,37 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.98</v>
+        <v>8.16</v>
       </c>
       <c r="G12" t="n">
-        <v>48324</v>
+        <v>10000</v>
       </c>
       <c r="H12" t="n">
-        <v>95662</v>
+        <v>81564</v>
       </c>
       <c r="I12" t="n">
-        <v>200690</v>
+        <v>77682</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Jun 13 06:55 PM</t>
+          <t>Jun 14 10:57 AM</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DTC</t>
+          <t>ANIX</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>METZ CHRISTOPHER T</t>
+          <t>Titterton Lewis H jr</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>President &amp; CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -984,42 +984,42 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.97</v>
+        <v>2.7</v>
       </c>
       <c r="G13" t="n">
-        <v>49310</v>
+        <v>405</v>
       </c>
       <c r="H13" t="n">
-        <v>97234</v>
+        <v>1094</v>
       </c>
       <c r="I13" t="n">
-        <v>250000</v>
+        <v>856612</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Jun 13 06:55 PM</t>
+          <t>Jun 14 09:56 AM</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ZOM</t>
+          <t>TURN</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Klass Russell Kevin</t>
+          <t>Gift Alicia M</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Vice President of Sales</t>
+          <t>Treasurer, Secretary</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1028,42 +1028,42 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.16</v>
+        <v>3.74</v>
       </c>
       <c r="G14" t="n">
-        <v>299993</v>
+        <v>1000</v>
       </c>
       <c r="H14" t="n">
-        <v>46529</v>
+        <v>3740</v>
       </c>
       <c r="I14" t="n">
-        <v>2000050</v>
+        <v>45465</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Jun 13 06:32 PM</t>
+          <t>Jun 14 08:45 AM</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>NRDY</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>KRUSZEWSKI RONALD J</t>
+          <t>Cohn Charles K.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1072,32 +1072,32 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="G15" t="n">
-        <v>8544</v>
+        <v>500000</v>
       </c>
       <c r="H15" t="n">
-        <v>38448</v>
+        <v>900000</v>
       </c>
       <c r="I15" t="n">
-        <v>8544</v>
+        <v>1422976</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Jun 13 06:14 PM</t>
+          <t>Jun 14 08:44 AM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>FTCI</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KRUSZEWSKI RONALD J</t>
+          <t>Chatila Ahmad R</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1116,32 +1116,32 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.57</v>
+        <v>0.44</v>
       </c>
       <c r="G16" t="n">
-        <v>41098</v>
+        <v>114726</v>
       </c>
       <c r="H16" t="n">
-        <v>187818</v>
+        <v>50479</v>
       </c>
       <c r="I16" t="n">
-        <v>49642</v>
+        <v>1082184</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Jun 13 06:14 PM</t>
+          <t>Jun 14 08:44 AM</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>CTCX</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>KRUSZEWSKI RONALD J</t>
+          <t>Upton Richard A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1160,42 +1160,42 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="G17" t="n">
-        <v>50358</v>
+        <v>2000</v>
       </c>
       <c r="H17" t="n">
-        <v>231647</v>
+        <v>4409</v>
       </c>
       <c r="I17" t="n">
-        <v>100000</v>
+        <v>6400</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Jun 13 06:14 PM</t>
+          <t>Jun 14 08:21 AM</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ACRS</t>
+          <t>GENK</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Leonard Braden Michael</t>
+          <t>Kim David Wook Jin</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Co-Chief Executive Officer</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1204,42 +1204,42 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.08</v>
+        <v>10.69</v>
       </c>
       <c r="G18" t="n">
-        <v>1000000</v>
+        <v>2000</v>
       </c>
       <c r="H18" t="n">
-        <v>1080000</v>
+        <v>21380</v>
       </c>
       <c r="I18" t="n">
-        <v>10395934</v>
+        <v>166652</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Jun 13 06:04 PM</t>
+          <t>Jun 13 09:31 PM</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ACRS</t>
+          <t>NEXI</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Leonard Braden Michael</t>
+          <t>Jones Kristi</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>President and CEO</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1248,42 +1248,42 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.14</v>
+        <v>0.01</v>
       </c>
       <c r="G19" t="n">
-        <v>82579</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>94140</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>10478513</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Jun 13 06:04 PM</t>
+          <t>Jun 13 07:58 PM</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ACRS</t>
+          <t>FAT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Leonard Braden Michael</t>
+          <t>WIEDERHORN ANDREW</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1292,32 +1292,32 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.15</v>
+        <v>14.21</v>
       </c>
       <c r="G20" t="n">
-        <v>528621</v>
+        <v>646</v>
       </c>
       <c r="H20" t="n">
-        <v>607757</v>
+        <v>9180</v>
       </c>
       <c r="I20" t="n">
-        <v>11007134</v>
+        <v>1643</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Jun 13 06:04 PM</t>
+          <t>Jun 13 07:57 PM</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UBFO</t>
+          <t>VFC</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GILL JAGROOP</t>
+          <t>Carucci Richard</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1336,42 +1336,42 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7.2</v>
+        <v>13.78</v>
       </c>
       <c r="G21" t="n">
-        <v>8255</v>
+        <v>25000</v>
       </c>
       <c r="H21" t="n">
-        <v>59436</v>
+        <v>344495</v>
       </c>
       <c r="I21" t="n">
-        <v>1079667</v>
+        <v>215130</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Jun 13 06:00 PM</t>
+          <t>Jun 13 07:30 PM</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CBU</t>
+          <t>SPWH</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Karaivanov Dimitar</t>
+          <t>Sansom Steven W.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>President &amp; CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1380,37 +1380,37 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>43.52</v>
+        <v>2.91</v>
       </c>
       <c r="G22" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="H22" t="n">
-        <v>43520</v>
+        <v>29135</v>
       </c>
       <c r="I22" t="n">
-        <v>19653</v>
+        <v>90000</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Jun 13 05:37 PM</t>
+          <t>Jun 13 07:12 PM</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GXO</t>
+          <t>DTC</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Wilson Malcolm</t>
+          <t>METZ CHRISTOPHER T</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>President &amp; CEO</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1424,42 +1424,42 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>49.95</v>
+        <v>1.94</v>
       </c>
       <c r="G23" t="n">
-        <v>10000</v>
+        <v>52366</v>
       </c>
       <c r="H23" t="n">
-        <v>499500</v>
+        <v>101721</v>
       </c>
       <c r="I23" t="n">
-        <v>100814</v>
+        <v>152366</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Jun 13 05:27 PM</t>
+          <t>Jun 13 06:55 PM</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CATX</t>
+          <t>DTC</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Spoor Johan M.</t>
+          <t>METZ CHRISTOPHER T</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>President &amp; CEO</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1468,42 +1468,42 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.17</v>
+        <v>1.98</v>
       </c>
       <c r="G24" t="n">
-        <v>100000</v>
+        <v>48324</v>
       </c>
       <c r="H24" t="n">
-        <v>117430</v>
+        <v>95662</v>
       </c>
       <c r="I24" t="n">
-        <v>137572</v>
+        <v>200690</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Jun 13 05:19 PM</t>
+          <t>Jun 13 06:55 PM</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TTSH</t>
+          <t>DTC</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fund 1 Investments, LLC</t>
+          <t>METZ CHRISTOPHER T</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>President &amp; CEO</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1512,37 +1512,37 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>6.48</v>
+        <v>1.97</v>
       </c>
       <c r="G25" t="n">
-        <v>17803</v>
+        <v>49310</v>
       </c>
       <c r="H25" t="n">
-        <v>115433</v>
+        <v>97234</v>
       </c>
       <c r="I25" t="n">
-        <v>6543238</v>
+        <v>250000</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Jun 13 05:11 PM</t>
+          <t>Jun 13 06:55 PM</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TTSH</t>
+          <t>ZOM</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fund 1 Investments, LLC</t>
+          <t>Klass Russell Kevin</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Vice President of Sales</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1556,42 +1556,42 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6.66</v>
+        <v>0.16</v>
       </c>
       <c r="G26" t="n">
-        <v>26000</v>
+        <v>299993</v>
       </c>
       <c r="H26" t="n">
-        <v>173274</v>
+        <v>46529</v>
       </c>
       <c r="I26" t="n">
-        <v>6569238</v>
+        <v>2000050</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Jun 13 05:11 PM</t>
+          <t>Jun 13 06:32 PM</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TTSH</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fund 1 Investments, LLC</t>
+          <t>KRUSZEWSKI RONALD J</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1600,32 +1600,32 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>6.65</v>
+        <v>4.5</v>
       </c>
       <c r="G27" t="n">
-        <v>30500</v>
+        <v>8544</v>
       </c>
       <c r="H27" t="n">
-        <v>202679</v>
+        <v>38448</v>
       </c>
       <c r="I27" t="n">
-        <v>6599738</v>
+        <v>8544</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Jun 13 05:11 PM</t>
+          <t>Jun 13 06:14 PM</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PRM</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Valladares Jorge</t>
+          <t>KRUSZEWSKI RONALD J</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>7.15</v>
+        <v>4.57</v>
       </c>
       <c r="G28" t="n">
-        <v>42000</v>
+        <v>41098</v>
       </c>
       <c r="H28" t="n">
-        <v>300258</v>
+        <v>187818</v>
       </c>
       <c r="I28" t="n">
-        <v>14000</v>
+        <v>49642</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Jun 13 05:06 PM</t>
+          <t>Jun 13 06:14 PM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PEGA</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Rowlands Sharon T</t>
+          <t>KRUSZEWSKI RONALD J</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1679,29 +1679,293 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>Jun 13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G29" t="n">
+        <v>50358</v>
+      </c>
+      <c r="H29" t="n">
+        <v>231647</v>
+      </c>
+      <c r="I29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Jun 13 06:14 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ACRS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Leonard Braden Michael</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>10% Owner</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>Jun 11</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>58.63</v>
-      </c>
-      <c r="G29" t="n">
-        <v>8600</v>
-      </c>
-      <c r="H29" t="n">
-        <v>504218</v>
-      </c>
-      <c r="I29" t="n">
-        <v>30871</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Jun 13 05:06 PM</t>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1080000</v>
+      </c>
+      <c r="I30" t="n">
+        <v>10395934</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Jun 13 06:04 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ACRS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Leonard Braden Michael</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>10% Owner</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Jun 12</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G31" t="n">
+        <v>82579</v>
+      </c>
+      <c r="H31" t="n">
+        <v>94140</v>
+      </c>
+      <c r="I31" t="n">
+        <v>10478513</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Jun 13 06:04 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ACRS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Leonard Braden Michael</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>10% Owner</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Jun 13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G32" t="n">
+        <v>528621</v>
+      </c>
+      <c r="H32" t="n">
+        <v>607757</v>
+      </c>
+      <c r="I32" t="n">
+        <v>11007134</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Jun 13 06:04 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>UBFO</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>GILL JAGROOP</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Jun 11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>8255</v>
+      </c>
+      <c r="H33" t="n">
+        <v>59436</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1079667</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Jun 13 06:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CBU</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Karaivanov Dimitar</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>President &amp; CEO</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Jun 13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>43.52</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H34" t="n">
+        <v>43520</v>
+      </c>
+      <c r="I34" t="n">
+        <v>19653</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Jun 13 05:37 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>GXO</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Wilson Malcolm</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Chief Executive Officer</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Jun 11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="G35" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H35" t="n">
+        <v>499500</v>
+      </c>
+      <c r="I35" t="n">
+        <v>100814</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Jun 13 05:27 PM</t>
         </is>
       </c>
     </row>

--- a/salidas/latest-insiders-trading-Buy.xlsx
+++ b/salidas/latest-insiders-trading-Buy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SNDA</t>
+          <t>RHP</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ribar Brandon</t>
+          <t>HASLAM WILLIAM E</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>President &amp; CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,42 +500,42 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>23.85</v>
+        <v>100.28</v>
       </c>
       <c r="G2" t="n">
-        <v>4200</v>
+        <v>9972</v>
       </c>
       <c r="H2" t="n">
-        <v>100170</v>
+        <v>999989</v>
       </c>
       <c r="I2" t="n">
-        <v>312255</v>
+        <v>22790</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Jun 14 01:07 PM</t>
+          <t>Jun 14 02:40 PM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RZLT</t>
+          <t>NFBK</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ROBERTS BRIAN KENNETH</t>
+          <t>Fasanella David</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Chief Medical Officer</t>
+          <t>EVP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jun 14</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -544,42 +544,42 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.91</v>
+        <v>7.79</v>
       </c>
       <c r="G3" t="n">
-        <v>4300</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>16828</v>
+        <v>7790</v>
       </c>
       <c r="I3" t="n">
-        <v>54352</v>
+        <v>4000</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Jun 14 12:51 PM</t>
+          <t>Jun 14 02:33 PM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RZLT</t>
+          <t>SR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ROBERTS BRIAN KENNETH</t>
+          <t>Rasche Steven P</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chief Medical Officer</t>
+          <t>Executive Vice President</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jun 14</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -588,42 +588,42 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.91</v>
+        <v>23.83</v>
       </c>
       <c r="G4" t="n">
-        <v>3300</v>
+        <v>4500</v>
       </c>
       <c r="H4" t="n">
-        <v>12916</v>
+        <v>107235</v>
       </c>
       <c r="I4" t="n">
-        <v>13000</v>
+        <v>16500</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Jun 14 12:51 PM</t>
+          <t>Jun 14 02:29 PM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GLBZ</t>
+          <t>NFBK</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hanna Mark Christopher</t>
+          <t>Kulkarni Rachana A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>President and CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -632,37 +632,37 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.75</v>
+        <v>7.92</v>
       </c>
       <c r="G5" t="n">
-        <v>541</v>
+        <v>10000</v>
       </c>
       <c r="H5" t="n">
-        <v>2029</v>
+        <v>79221</v>
       </c>
       <c r="I5" t="n">
-        <v>4141</v>
+        <v>14057</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Jun 14 12:41 PM</t>
+          <t>Jun 14 02:26 PM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RRBI</t>
+          <t>HQL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Crowell Michael D.</t>
+          <t>Saba Capital Management, L.P.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -676,37 +676,37 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>46.15</v>
+        <v>13.88</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="H6" t="n">
-        <v>46150</v>
+        <v>33312</v>
       </c>
       <c r="I6" t="n">
-        <v>14330</v>
+        <v>3407612</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Jun 14 12:39 PM</t>
+          <t>Jun 14 01:59 PM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RRBI</t>
+          <t>HQL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Crowell Michael D.</t>
+          <t>Saba Capital Management, L.P.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -720,42 +720,42 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>46.31</v>
+        <v>13.82</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>8467</v>
       </c>
       <c r="H7" t="n">
-        <v>46310</v>
+        <v>117014</v>
       </c>
       <c r="I7" t="n">
-        <v>17350</v>
+        <v>3416079</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Jun 14 12:39 PM</t>
+          <t>Jun 14 01:59 PM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MSBI</t>
+          <t>SOFI</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>McDonnell Jeffrey M</t>
+          <t>Noto Anthony</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -764,42 +764,42 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>21.8</v>
+        <v>6.48</v>
       </c>
       <c r="G8" t="n">
-        <v>2290</v>
+        <v>30715</v>
       </c>
       <c r="H8" t="n">
-        <v>49922</v>
+        <v>199110</v>
       </c>
       <c r="I8" t="n">
-        <v>24245</v>
+        <v>8121844</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Jun 14 12:35 PM</t>
+          <t>Jun 14 01:50 PM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RZLT</t>
+          <t>SNDA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Evans Daron</t>
+          <t>Ribar Brandon</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>President &amp; CEO</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jun 14</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -808,42 +808,42 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.04</v>
+        <v>23.85</v>
       </c>
       <c r="G9" t="n">
-        <v>40000</v>
+        <v>4200</v>
       </c>
       <c r="H9" t="n">
-        <v>161568</v>
+        <v>100170</v>
       </c>
       <c r="I9" t="n">
-        <v>40000</v>
+        <v>312255</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Jun 14 12:06 PM</t>
+          <t>Jun 14 01:07 PM</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RCG</t>
+          <t>RZLT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>STAHL MURRAY</t>
+          <t>ROBERTS BRIAN KENNETH</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>President and CEO</t>
+          <t>Chief Medical Officer</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -852,42 +852,42 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.65</v>
+        <v>3.91</v>
       </c>
       <c r="G10" t="n">
-        <v>14</v>
+        <v>4300</v>
       </c>
       <c r="H10" t="n">
-        <v>23</v>
+        <v>16828</v>
       </c>
       <c r="I10" t="n">
-        <v>5206</v>
+        <v>54352</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Jun 14 11:39 AM</t>
+          <t>Jun 14 12:51 PM</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RCG</t>
+          <t>RZLT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>STAHL MURRAY</t>
+          <t>ROBERTS BRIAN KENNETH</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>President and CEO</t>
+          <t>Chief Medical Officer</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -896,37 +896,37 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.65</v>
+        <v>3.91</v>
       </c>
       <c r="G11" t="n">
-        <v>170</v>
+        <v>3300</v>
       </c>
       <c r="H11" t="n">
-        <v>280</v>
+        <v>12916</v>
       </c>
       <c r="I11" t="n">
-        <v>248532</v>
+        <v>13000</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Jun 14 11:39 AM</t>
+          <t>Jun 14 12:51 PM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NFBK</t>
+          <t>GLBZ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Harrison Timothy C</t>
+          <t>Hanna Mark Christopher</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>President and CEO</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -940,32 +940,32 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8.16</v>
+        <v>3.75</v>
       </c>
       <c r="G12" t="n">
-        <v>10000</v>
+        <v>541</v>
       </c>
       <c r="H12" t="n">
-        <v>81564</v>
+        <v>2029</v>
       </c>
       <c r="I12" t="n">
-        <v>77682</v>
+        <v>4141</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Jun 14 10:57 AM</t>
+          <t>Jun 14 12:41 PM</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ANIX</t>
+          <t>RRBI</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Titterton Lewis H jr</t>
+          <t>Crowell Michael D.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -984,37 +984,37 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.7</v>
+        <v>46.15</v>
       </c>
       <c r="G13" t="n">
-        <v>405</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="n">
-        <v>1094</v>
+        <v>46150</v>
       </c>
       <c r="I13" t="n">
-        <v>856612</v>
+        <v>14330</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Jun 14 09:56 AM</t>
+          <t>Jun 14 12:39 PM</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TURN</t>
+          <t>RRBI</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Gift Alicia M</t>
+          <t>Crowell Michael D.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Treasurer, Secretary</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1028,42 +1028,42 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.74</v>
+        <v>46.31</v>
       </c>
       <c r="G14" t="n">
         <v>1000</v>
       </c>
       <c r="H14" t="n">
-        <v>3740</v>
+        <v>46310</v>
       </c>
       <c r="I14" t="n">
-        <v>45465</v>
+        <v>17350</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Jun 14 08:45 AM</t>
+          <t>Jun 14 12:39 PM</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NRDY</t>
+          <t>MSBI</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cohn Charles K.</t>
+          <t>McDonnell Jeffrey M</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1072,42 +1072,42 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.8</v>
+        <v>21.8</v>
       </c>
       <c r="G15" t="n">
-        <v>500000</v>
+        <v>2290</v>
       </c>
       <c r="H15" t="n">
-        <v>900000</v>
+        <v>49922</v>
       </c>
       <c r="I15" t="n">
-        <v>1422976</v>
+        <v>24245</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Jun 14 08:44 AM</t>
+          <t>Jun 14 12:35 PM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FTCI</t>
+          <t>RZLT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chatila Ahmad R</t>
+          <t>Evans Daron</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1116,42 +1116,42 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.44</v>
+        <v>4.04</v>
       </c>
       <c r="G16" t="n">
-        <v>114726</v>
+        <v>40000</v>
       </c>
       <c r="H16" t="n">
-        <v>50479</v>
+        <v>161568</v>
       </c>
       <c r="I16" t="n">
-        <v>1082184</v>
+        <v>40000</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Jun 14 08:44 AM</t>
+          <t>Jun 14 12:06 PM</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CTCX</t>
+          <t>RCG</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Upton Richard A</t>
+          <t>STAHL MURRAY</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>President and CEO</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1160,42 +1160,42 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="G17" t="n">
-        <v>2000</v>
+        <v>14</v>
       </c>
       <c r="H17" t="n">
-        <v>4409</v>
+        <v>23</v>
       </c>
       <c r="I17" t="n">
-        <v>6400</v>
+        <v>5206</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Jun 14 08:21 AM</t>
+          <t>Jun 14 11:39 AM</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GENK</t>
+          <t>RCG</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Kim David Wook Jin</t>
+          <t>STAHL MURRAY</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Co-Chief Executive Officer</t>
+          <t>President and CEO</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1204,42 +1204,42 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10.69</v>
+        <v>1.65</v>
       </c>
       <c r="G18" t="n">
-        <v>2000</v>
+        <v>170</v>
       </c>
       <c r="H18" t="n">
-        <v>21380</v>
+        <v>280</v>
       </c>
       <c r="I18" t="n">
-        <v>166652</v>
+        <v>248532</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Jun 13 09:31 PM</t>
+          <t>Jun 14 11:39 AM</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NEXI</t>
+          <t>NFBK</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Jones Kristi</t>
+          <t>Harrison Timothy C</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>President and CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1248,32 +1248,32 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.01</v>
+        <v>8.16</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>81564</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>77682</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Jun 13 07:58 PM</t>
+          <t>Jun 14 10:57 AM</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FAT</t>
+          <t>ANIX</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WIEDERHORN ANDREW</t>
+          <t>Titterton Lewis H jr</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1292,37 +1292,37 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>14.21</v>
+        <v>2.7</v>
       </c>
       <c r="G20" t="n">
-        <v>646</v>
+        <v>405</v>
       </c>
       <c r="H20" t="n">
-        <v>9180</v>
+        <v>1094</v>
       </c>
       <c r="I20" t="n">
-        <v>1643</v>
+        <v>856612</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Jun 13 07:57 PM</t>
+          <t>Jun 14 09:56 AM</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>VFC</t>
+          <t>TURN</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Carucci Richard</t>
+          <t>Gift Alicia M</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Treasurer, Secretary</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1336,37 +1336,37 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>13.78</v>
+        <v>3.74</v>
       </c>
       <c r="G21" t="n">
-        <v>25000</v>
+        <v>1000</v>
       </c>
       <c r="H21" t="n">
-        <v>344495</v>
+        <v>3740</v>
       </c>
       <c r="I21" t="n">
-        <v>215130</v>
+        <v>45465</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Jun 13 07:30 PM</t>
+          <t>Jun 14 08:45 AM</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SPWH</t>
+          <t>NRDY</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sansom Steven W.</t>
+          <t>Cohn Charles K.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1380,42 +1380,42 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.91</v>
+        <v>1.8</v>
       </c>
       <c r="G22" t="n">
-        <v>10000</v>
+        <v>500000</v>
       </c>
       <c r="H22" t="n">
-        <v>29135</v>
+        <v>900000</v>
       </c>
       <c r="I22" t="n">
-        <v>90000</v>
+        <v>1422976</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Jun 13 07:12 PM</t>
+          <t>Jun 14 08:44 AM</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DTC</t>
+          <t>FTCI</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>METZ CHRISTOPHER T</t>
+          <t>Chatila Ahmad R</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>President &amp; CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1424,37 +1424,37 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.94</v>
+        <v>0.44</v>
       </c>
       <c r="G23" t="n">
-        <v>52366</v>
+        <v>114726</v>
       </c>
       <c r="H23" t="n">
-        <v>101721</v>
+        <v>50479</v>
       </c>
       <c r="I23" t="n">
-        <v>152366</v>
+        <v>1082184</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Jun 13 06:55 PM</t>
+          <t>Jun 14 08:44 AM</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DTC</t>
+          <t>CTCX</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>METZ CHRISTOPHER T</t>
+          <t>Upton Richard A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>President &amp; CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1468,42 +1468,42 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="G24" t="n">
-        <v>48324</v>
+        <v>2000</v>
       </c>
       <c r="H24" t="n">
-        <v>95662</v>
+        <v>4409</v>
       </c>
       <c r="I24" t="n">
-        <v>200690</v>
+        <v>6400</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Jun 13 06:55 PM</t>
+          <t>Jun 14 08:21 AM</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DTC</t>
+          <t>GENK</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>METZ CHRISTOPHER T</t>
+          <t>Kim David Wook Jin</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>President &amp; CEO</t>
+          <t>Co-Chief Executive Officer</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1512,42 +1512,42 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.97</v>
+        <v>10.69</v>
       </c>
       <c r="G25" t="n">
-        <v>49310</v>
+        <v>2000</v>
       </c>
       <c r="H25" t="n">
-        <v>97234</v>
+        <v>21380</v>
       </c>
       <c r="I25" t="n">
-        <v>250000</v>
+        <v>166652</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Jun 13 06:55 PM</t>
+          <t>Jun 13 09:31 PM</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ZOM</t>
+          <t>NEXI</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Klass Russell Kevin</t>
+          <t>Jones Kristi</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Vice President of Sales</t>
+          <t>President and CEO</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1556,32 +1556,32 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="G26" t="n">
-        <v>299993</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>46529</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2000050</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Jun 13 06:32 PM</t>
+          <t>Jun 13 07:58 PM</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>FAT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>KRUSZEWSKI RONALD J</t>
+          <t>WIEDERHORN ANDREW</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1600,32 +1600,32 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.5</v>
+        <v>14.21</v>
       </c>
       <c r="G27" t="n">
-        <v>8544</v>
+        <v>646</v>
       </c>
       <c r="H27" t="n">
-        <v>38448</v>
+        <v>9180</v>
       </c>
       <c r="I27" t="n">
-        <v>8544</v>
+        <v>1643</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Jun 13 06:14 PM</t>
+          <t>Jun 13 07:57 PM</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>VFC</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>KRUSZEWSKI RONALD J</t>
+          <t>Carucci Richard</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.57</v>
+        <v>13.78</v>
       </c>
       <c r="G28" t="n">
-        <v>41098</v>
+        <v>25000</v>
       </c>
       <c r="H28" t="n">
-        <v>187818</v>
+        <v>344495</v>
       </c>
       <c r="I28" t="n">
-        <v>49642</v>
+        <v>215130</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Jun 13 06:14 PM</t>
+          <t>Jun 13 07:30 PM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>SPWH</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>KRUSZEWSKI RONALD J</t>
+          <t>Sansom Steven W.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1688,37 +1688,37 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4.6</v>
+        <v>2.91</v>
       </c>
       <c r="G29" t="n">
-        <v>50358</v>
+        <v>10000</v>
       </c>
       <c r="H29" t="n">
-        <v>231647</v>
+        <v>29135</v>
       </c>
       <c r="I29" t="n">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Jun 13 06:14 PM</t>
+          <t>Jun 13 07:12 PM</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ACRS</t>
+          <t>DTC</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Leonard Braden Michael</t>
+          <t>METZ CHRISTOPHER T</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>President &amp; CEO</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1732,37 +1732,37 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.08</v>
+        <v>1.94</v>
       </c>
       <c r="G30" t="n">
-        <v>1000000</v>
+        <v>52366</v>
       </c>
       <c r="H30" t="n">
-        <v>1080000</v>
+        <v>101721</v>
       </c>
       <c r="I30" t="n">
-        <v>10395934</v>
+        <v>152366</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Jun 13 06:04 PM</t>
+          <t>Jun 13 06:55 PM</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ACRS</t>
+          <t>DTC</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Leonard Braden Michael</t>
+          <t>METZ CHRISTOPHER T</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>President &amp; CEO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1776,37 +1776,37 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.14</v>
+        <v>1.98</v>
       </c>
       <c r="G31" t="n">
-        <v>82579</v>
+        <v>48324</v>
       </c>
       <c r="H31" t="n">
-        <v>94140</v>
+        <v>95662</v>
       </c>
       <c r="I31" t="n">
-        <v>10478513</v>
+        <v>200690</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Jun 13 06:04 PM</t>
+          <t>Jun 13 06:55 PM</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ACRS</t>
+          <t>DTC</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Leonard Braden Michael</t>
+          <t>METZ CHRISTOPHER T</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>President &amp; CEO</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1820,42 +1820,42 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.15</v>
+        <v>1.97</v>
       </c>
       <c r="G32" t="n">
-        <v>528621</v>
+        <v>49310</v>
       </c>
       <c r="H32" t="n">
-        <v>607757</v>
+        <v>97234</v>
       </c>
       <c r="I32" t="n">
-        <v>11007134</v>
+        <v>250000</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Jun 13 06:04 PM</t>
+          <t>Jun 13 06:55 PM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UBFO</t>
+          <t>ZOM</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GILL JAGROOP</t>
+          <t>Klass Russell Kevin</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Vice President of Sales</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1864,42 +1864,42 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>7.2</v>
+        <v>0.16</v>
       </c>
       <c r="G33" t="n">
-        <v>8255</v>
+        <v>299993</v>
       </c>
       <c r="H33" t="n">
-        <v>59436</v>
+        <v>46529</v>
       </c>
       <c r="I33" t="n">
-        <v>1079667</v>
+        <v>2000050</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Jun 13 06:00 PM</t>
+          <t>Jun 13 06:32 PM</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CBU</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Karaivanov Dimitar</t>
+          <t>KRUSZEWSKI RONALD J</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>President &amp; CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1908,64 +1908,328 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>43.52</v>
+        <v>4.5</v>
       </c>
       <c r="G34" t="n">
-        <v>1000</v>
+        <v>8544</v>
       </c>
       <c r="H34" t="n">
-        <v>43520</v>
+        <v>38448</v>
       </c>
       <c r="I34" t="n">
-        <v>19653</v>
+        <v>8544</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Jun 13 05:37 PM</t>
+          <t>Jun 13 06:14 PM</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GXO</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Wilson Malcolm</t>
+          <t>KRUSZEWSKI RONALD J</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>Jun 12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="G35" t="n">
+        <v>41098</v>
+      </c>
+      <c r="H35" t="n">
+        <v>187818</v>
+      </c>
+      <c r="I35" t="n">
+        <v>49642</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Jun 13 06:14 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>KRUSZEWSKI RONALD J</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Jun 13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G36" t="n">
+        <v>50358</v>
+      </c>
+      <c r="H36" t="n">
+        <v>231647</v>
+      </c>
+      <c r="I36" t="n">
+        <v>100000</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Jun 13 06:14 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ACRS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Leonard Braden Michael</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>10% Owner</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>Jun 11</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>49.95</v>
-      </c>
-      <c r="G35" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H35" t="n">
-        <v>499500</v>
-      </c>
-      <c r="I35" t="n">
-        <v>100814</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Jun 13 05:27 PM</t>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1080000</v>
+      </c>
+      <c r="I37" t="n">
+        <v>10395934</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Jun 13 06:04 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ACRS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Leonard Braden Michael</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>10% Owner</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Jun 12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G38" t="n">
+        <v>82579</v>
+      </c>
+      <c r="H38" t="n">
+        <v>94140</v>
+      </c>
+      <c r="I38" t="n">
+        <v>10478513</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Jun 13 06:04 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ACRS</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Leonard Braden Michael</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>10% Owner</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Jun 13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G39" t="n">
+        <v>528621</v>
+      </c>
+      <c r="H39" t="n">
+        <v>607757</v>
+      </c>
+      <c r="I39" t="n">
+        <v>11007134</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Jun 13 06:04 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>UBFO</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>GILL JAGROOP</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Jun 11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>8255</v>
+      </c>
+      <c r="H40" t="n">
+        <v>59436</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1079667</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Jun 13 06:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CBU</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Karaivanov Dimitar</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>President &amp; CEO</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Jun 13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>43.52</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H41" t="n">
+        <v>43520</v>
+      </c>
+      <c r="I41" t="n">
+        <v>19653</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Jun 13 05:37 PM</t>
         </is>
       </c>
     </row>

--- a/salidas/latest-insiders-trading-Buy.xlsx
+++ b/salidas/latest-insiders-trading-Buy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,12 +476,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RHP</t>
+          <t>OPAD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HASLAM WILLIAM E</t>
+          <t>Sella Roberto Marco</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,37 +500,37 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>100.28</v>
+        <v>4.9</v>
       </c>
       <c r="G2" t="n">
-        <v>9972</v>
+        <v>2735</v>
       </c>
       <c r="H2" t="n">
-        <v>999989</v>
+        <v>13402</v>
       </c>
       <c r="I2" t="n">
-        <v>22790</v>
+        <v>3121185</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Jun 14 02:40 PM</t>
+          <t>Jun 14 07:52 PM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NFBK</t>
+          <t>OPAD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fasanella David</t>
+          <t>Sella Roberto Marco</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EVP</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -544,42 +544,42 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7.79</v>
+        <v>4.9</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="H3" t="n">
-        <v>7790</v>
+        <v>49000</v>
       </c>
       <c r="I3" t="n">
-        <v>4000</v>
+        <v>3131185</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Jun 14 02:33 PM</t>
+          <t>Jun 14 07:52 PM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>OPAD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rasche Steven P</t>
+          <t>Sella Roberto Marco</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Executive Vice President</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -588,42 +588,42 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>23.83</v>
+        <v>4.9</v>
       </c>
       <c r="G4" t="n">
-        <v>4500</v>
+        <v>7698</v>
       </c>
       <c r="H4" t="n">
-        <v>107235</v>
+        <v>37720</v>
       </c>
       <c r="I4" t="n">
-        <v>16500</v>
+        <v>3138883</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Jun 14 02:29 PM</t>
+          <t>Jun 14 07:52 PM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NFBK</t>
+          <t>SHEN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kulkarni Rachana A</t>
+          <t>FRENCH CHRISTOPHER E</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>President &amp; CEO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -632,37 +632,37 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.92</v>
+        <v>15.79</v>
       </c>
       <c r="G5" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="H5" t="n">
-        <v>79221</v>
+        <v>78950</v>
       </c>
       <c r="I5" t="n">
-        <v>14057</v>
+        <v>84629</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Jun 14 02:26 PM</t>
+          <t>Jun 14 07:41 PM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HQL</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Saba Capital Management, L.P.</t>
+          <t>Marcogliese Richard J</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -676,32 +676,32 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>13.88</v>
+        <v>23.99</v>
       </c>
       <c r="G6" t="n">
-        <v>2400</v>
+        <v>2750</v>
       </c>
       <c r="H6" t="n">
-        <v>33312</v>
+        <v>65972</v>
       </c>
       <c r="I6" t="n">
-        <v>3407612</v>
+        <v>42863</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Jun 14 01:59 PM</t>
+          <t>Jun 14 07:19 PM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HQL</t>
+          <t>LGF-A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Saba Capital Management, L.P.</t>
+          <t>Liberty 77 Capital L.P.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -720,42 +720,42 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>13.82</v>
+        <v>8.01</v>
       </c>
       <c r="G7" t="n">
-        <v>8467</v>
+        <v>275245</v>
       </c>
       <c r="H7" t="n">
-        <v>117014</v>
+        <v>2204988</v>
       </c>
       <c r="I7" t="n">
-        <v>3416079</v>
+        <v>8631954</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Jun 14 01:59 PM</t>
+          <t>Jun 14 07:01 PM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>LGF-A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Noto Anthony</t>
+          <t>Liberty 77 Capital L.P.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jun 14</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -764,42 +764,42 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.48</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>30715</v>
+        <v>324755</v>
       </c>
       <c r="H8" t="n">
-        <v>199110</v>
+        <v>2643408</v>
       </c>
       <c r="I8" t="n">
-        <v>8121844</v>
+        <v>8956709</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Jun 14 01:50 PM</t>
+          <t>Jun 14 07:01 PM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SNDA</t>
+          <t>LGF-A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ribar Brandon</t>
+          <t>Liberty 77 Capital L.P.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>President &amp; CEO</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -808,42 +808,42 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>23.85</v>
+        <v>8.19</v>
       </c>
       <c r="G9" t="n">
-        <v>4200</v>
+        <v>98858</v>
       </c>
       <c r="H9" t="n">
-        <v>100170</v>
+        <v>809350</v>
       </c>
       <c r="I9" t="n">
-        <v>312255</v>
+        <v>9055567</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Jun 14 01:07 PM</t>
+          <t>Jun 14 07:01 PM</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RZLT</t>
+          <t>LGF-B</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ROBERTS BRIAN KENNETH</t>
+          <t>Liberty 77 Capital L.P.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Chief Medical Officer</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jun 14</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -852,42 +852,42 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.91</v>
+        <v>8.01</v>
       </c>
       <c r="G10" t="n">
-        <v>4300</v>
+        <v>275245</v>
       </c>
       <c r="H10" t="n">
-        <v>16828</v>
+        <v>2204988</v>
       </c>
       <c r="I10" t="n">
-        <v>54352</v>
+        <v>8631954</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Jun 14 12:51 PM</t>
+          <t>Jun 14 07:01 PM</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RZLT</t>
+          <t>LGF-B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ROBERTS BRIAN KENNETH</t>
+          <t>Liberty 77 Capital L.P.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Chief Medical Officer</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jun 14</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -896,42 +896,42 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.91</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>3300</v>
+        <v>324755</v>
       </c>
       <c r="H11" t="n">
-        <v>12916</v>
+        <v>2643408</v>
       </c>
       <c r="I11" t="n">
-        <v>13000</v>
+        <v>8956709</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Jun 14 12:51 PM</t>
+          <t>Jun 14 07:01 PM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GLBZ</t>
+          <t>LGF-B</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hanna Mark Christopher</t>
+          <t>Liberty 77 Capital L.P.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>President and CEO</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -940,37 +940,37 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.75</v>
+        <v>8.19</v>
       </c>
       <c r="G12" t="n">
-        <v>541</v>
+        <v>98858</v>
       </c>
       <c r="H12" t="n">
-        <v>2029</v>
+        <v>809350</v>
       </c>
       <c r="I12" t="n">
-        <v>4141</v>
+        <v>9055567</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Jun 14 12:41 PM</t>
+          <t>Jun 14 07:01 PM</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RRBI</t>
+          <t>PFX</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Crowell Michael D.</t>
+          <t>Lorber David A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CHAIRMAN AND CEO</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -984,42 +984,42 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>46.15</v>
+        <v>44.98</v>
       </c>
       <c r="G13" t="n">
-        <v>1000</v>
+        <v>628</v>
       </c>
       <c r="H13" t="n">
-        <v>46150</v>
+        <v>28245</v>
       </c>
       <c r="I13" t="n">
-        <v>14330</v>
+        <v>124961</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Jun 14 12:39 PM</t>
+          <t>Jun 14 06:56 PM</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RRBI</t>
+          <t>PFX</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Crowell Michael D.</t>
+          <t>Lorber David A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CHAIRMAN AND CEO</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1028,42 +1028,42 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>46.31</v>
+        <v>44.85</v>
       </c>
       <c r="G14" t="n">
-        <v>1000</v>
+        <v>289</v>
       </c>
       <c r="H14" t="n">
-        <v>46310</v>
+        <v>12961</v>
       </c>
       <c r="I14" t="n">
-        <v>17350</v>
+        <v>3289</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Jun 14 12:39 PM</t>
+          <t>Jun 14 06:56 PM</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MSBI</t>
+          <t>PFX</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>McDonnell Jeffrey M</t>
+          <t>Lorber David A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CHAIRMAN AND CEO</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1072,42 +1072,42 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>21.8</v>
+        <v>45.08</v>
       </c>
       <c r="G15" t="n">
-        <v>2290</v>
+        <v>64</v>
       </c>
       <c r="H15" t="n">
-        <v>49922</v>
+        <v>2885</v>
       </c>
       <c r="I15" t="n">
-        <v>24245</v>
+        <v>125025</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Jun 14 12:35 PM</t>
+          <t>Jun 14 06:56 PM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RZLT</t>
+          <t>TPB</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Evans Daron</t>
+          <t>Frein Summer</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Chief Revenue Officer</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jun 14</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1116,42 +1116,42 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.04</v>
+        <v>30.96</v>
       </c>
       <c r="G16" t="n">
-        <v>40000</v>
+        <v>2260</v>
       </c>
       <c r="H16" t="n">
-        <v>161568</v>
+        <v>69970</v>
       </c>
       <c r="I16" t="n">
-        <v>40000</v>
+        <v>17203</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Jun 14 12:06 PM</t>
+          <t>Jun 14 06:50 PM</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RCG</t>
+          <t>DALN</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>STAHL MURRAY</t>
+          <t>MURRAY MARY K</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>President and CEO</t>
+          <t>President, Treasurer Secretary</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1160,37 +1160,37 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.65</v>
+        <v>3.76</v>
       </c>
       <c r="G17" t="n">
-        <v>14</v>
+        <v>1589</v>
       </c>
       <c r="H17" t="n">
-        <v>23</v>
+        <v>5974</v>
       </c>
       <c r="I17" t="n">
-        <v>5206</v>
+        <v>7958</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Jun 14 11:39 AM</t>
+          <t>Jun 14 06:40 PM</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RCG</t>
+          <t>DALN</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>STAHL MURRAY</t>
+          <t>MURRAY MARY K</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>President and CEO</t>
+          <t>President, Treasurer Secretary</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1204,42 +1204,42 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.65</v>
+        <v>3.83</v>
       </c>
       <c r="G18" t="n">
-        <v>170</v>
+        <v>5102</v>
       </c>
       <c r="H18" t="n">
-        <v>280</v>
+        <v>19562</v>
       </c>
       <c r="I18" t="n">
-        <v>248532</v>
+        <v>13060</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Jun 14 11:39 AM</t>
+          <t>Jun 14 06:40 PM</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NFBK</t>
+          <t>DALN</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Harrison Timothy C</t>
+          <t>MURRAY MARY K</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>President, Treasurer Secretary</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1248,32 +1248,32 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>8.16</v>
+        <v>3.77</v>
       </c>
       <c r="G19" t="n">
-        <v>10000</v>
+        <v>309</v>
       </c>
       <c r="H19" t="n">
-        <v>81564</v>
+        <v>1165</v>
       </c>
       <c r="I19" t="n">
-        <v>77682</v>
+        <v>13369</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Jun 14 10:57 AM</t>
+          <t>Jun 14 06:40 PM</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ANIX</t>
+          <t>RGEN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Titterton Lewis H jr</t>
+          <t>Madaus Martin D</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1292,37 +1292,37 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.7</v>
+        <v>124.94</v>
       </c>
       <c r="G20" t="n">
-        <v>405</v>
+        <v>1615</v>
       </c>
       <c r="H20" t="n">
-        <v>1094</v>
+        <v>201776</v>
       </c>
       <c r="I20" t="n">
-        <v>856612</v>
+        <v>4613</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Jun 14 09:56 AM</t>
+          <t>Jun 14 06:07 PM</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TURN</t>
+          <t>RKT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Gift Alicia M</t>
+          <t>Rizik Matthew</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Treasurer, Secretary</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1336,42 +1336,42 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.74</v>
+        <v>14.65</v>
       </c>
       <c r="G21" t="n">
-        <v>1000</v>
+        <v>294</v>
       </c>
       <c r="H21" t="n">
-        <v>3740</v>
+        <v>4307</v>
       </c>
       <c r="I21" t="n">
-        <v>45465</v>
+        <v>704591</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Jun 14 08:45 AM</t>
+          <t>Jun 14 06:02 PM</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NRDY</t>
+          <t>RKT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cohn Charles K.</t>
+          <t>Rizik Matthew</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1380,32 +1380,32 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.8</v>
+        <v>14.67</v>
       </c>
       <c r="G22" t="n">
-        <v>500000</v>
+        <v>297</v>
       </c>
       <c r="H22" t="n">
-        <v>900000</v>
+        <v>4357</v>
       </c>
       <c r="I22" t="n">
-        <v>1422976</v>
+        <v>704888</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Jun 14 08:44 AM</t>
+          <t>Jun 14 06:02 PM</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FTCI</t>
+          <t>RGEN</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Chatila Ahmad R</t>
+          <t>BARTHELEMY NICOLAS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1424,42 +1424,42 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.44</v>
+        <v>125.45</v>
       </c>
       <c r="G23" t="n">
-        <v>114726</v>
+        <v>1200</v>
       </c>
       <c r="H23" t="n">
-        <v>50479</v>
+        <v>150540</v>
       </c>
       <c r="I23" t="n">
-        <v>1082184</v>
+        <v>4668</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Jun 14 08:44 AM</t>
+          <t>Jun 14 05:42 PM</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CTCX</t>
+          <t>RGEN</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Upton Richard A</t>
+          <t>Hunt Anthony</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1468,42 +1468,42 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.2</v>
+        <v>124.08</v>
       </c>
       <c r="G24" t="n">
         <v>2000</v>
       </c>
       <c r="H24" t="n">
-        <v>4409</v>
+        <v>248160</v>
       </c>
       <c r="I24" t="n">
-        <v>6400</v>
+        <v>165177</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Jun 14 08:21 AM</t>
+          <t>Jun 14 05:41 PM</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GENK</t>
+          <t>SYPR</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Kim David Wook Jin</t>
+          <t>Convis Gary L</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Co-Chief Executive Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1512,42 +1512,42 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>10.69</v>
+        <v>1.92</v>
       </c>
       <c r="G25" t="n">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="H25" t="n">
-        <v>21380</v>
+        <v>38400</v>
       </c>
       <c r="I25" t="n">
-        <v>166652</v>
+        <v>449811</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Jun 13 09:31 PM</t>
+          <t>Jun 14 05:38 PM</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NEXI</t>
+          <t>HTLD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Jones Kristi</t>
+          <t>PRATT JAMES G</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>President and CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1556,42 +1556,42 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.01</v>
+        <v>11.96</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>9000</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>107619</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>23429</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Jun 13 07:58 PM</t>
+          <t>Jun 14 05:36 PM</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FAT</t>
+          <t>HLLY</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WIEDERHORN ANDREW</t>
+          <t>Rubel Matthew E</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Exec. Chairman of the Board</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1600,42 +1600,42 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>14.21</v>
+        <v>3.39</v>
       </c>
       <c r="G27" t="n">
-        <v>646</v>
+        <v>14493</v>
       </c>
       <c r="H27" t="n">
-        <v>9180</v>
+        <v>49131</v>
       </c>
       <c r="I27" t="n">
-        <v>1643</v>
+        <v>169979</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Jun 13 07:57 PM</t>
+          <t>Jun 14 05:24 PM</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>VFC</t>
+          <t>TLPH</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Carucci Richard</t>
+          <t>Angotti Vincent J.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CHIEF EXECUTIVE OFFICER</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1644,42 +1644,42 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>13.78</v>
+        <v>0.97</v>
       </c>
       <c r="G28" t="n">
-        <v>25000</v>
+        <v>4126</v>
       </c>
       <c r="H28" t="n">
-        <v>344495</v>
+        <v>4013</v>
       </c>
       <c r="I28" t="n">
-        <v>215130</v>
+        <v>174932</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Jun 13 07:30 PM</t>
+          <t>Jun 14 05:19 PM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SPWH</t>
+          <t>TLPH</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sansom Steven W.</t>
+          <t>Angotti Vincent J.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CHIEF EXECUTIVE OFFICER</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1688,42 +1688,42 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.91</v>
+        <v>0.97</v>
       </c>
       <c r="G29" t="n">
-        <v>10000</v>
+        <v>4570</v>
       </c>
       <c r="H29" t="n">
-        <v>29135</v>
+        <v>4438</v>
       </c>
       <c r="I29" t="n">
-        <v>90000</v>
+        <v>179502</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Jun 13 07:12 PM</t>
+          <t>Jun 14 05:19 PM</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DTC</t>
+          <t>TLPH</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>METZ CHRISTOPHER T</t>
+          <t>Angotti Vincent J.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>President &amp; CEO</t>
+          <t>CHIEF EXECUTIVE OFFICER</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1732,504 +1732,20 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.94</v>
+        <v>1.08</v>
       </c>
       <c r="G30" t="n">
-        <v>52366</v>
+        <v>1304</v>
       </c>
       <c r="H30" t="n">
-        <v>101721</v>
+        <v>1404</v>
       </c>
       <c r="I30" t="n">
-        <v>152366</v>
+        <v>180806</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Jun 13 06:55 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>DTC</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>METZ CHRISTOPHER T</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>President &amp; CEO</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Jun 12</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="G31" t="n">
-        <v>48324</v>
-      </c>
-      <c r="H31" t="n">
-        <v>95662</v>
-      </c>
-      <c r="I31" t="n">
-        <v>200690</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Jun 13 06:55 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>DTC</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>METZ CHRISTOPHER T</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>President &amp; CEO</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Jun 13</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="G32" t="n">
-        <v>49310</v>
-      </c>
-      <c r="H32" t="n">
-        <v>97234</v>
-      </c>
-      <c r="I32" t="n">
-        <v>250000</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Jun 13 06:55 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>ZOM</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Klass Russell Kevin</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Vice President of Sales</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Jun 12</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="G33" t="n">
-        <v>299993</v>
-      </c>
-      <c r="H33" t="n">
-        <v>46529</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2000050</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Jun 13 06:32 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>KRUSZEWSKI RONALD J</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Jun 11</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G34" t="n">
-        <v>8544</v>
-      </c>
-      <c r="H34" t="n">
-        <v>38448</v>
-      </c>
-      <c r="I34" t="n">
-        <v>8544</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Jun 13 06:14 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>KRUSZEWSKI RONALD J</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Jun 12</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="G35" t="n">
-        <v>41098</v>
-      </c>
-      <c r="H35" t="n">
-        <v>187818</v>
-      </c>
-      <c r="I35" t="n">
-        <v>49642</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Jun 13 06:14 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>KRUSZEWSKI RONALD J</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Jun 13</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="G36" t="n">
-        <v>50358</v>
-      </c>
-      <c r="H36" t="n">
-        <v>231647</v>
-      </c>
-      <c r="I36" t="n">
-        <v>100000</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Jun 13 06:14 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>ACRS</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Leonard Braden Michael</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>10% Owner</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Jun 11</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1080000</v>
-      </c>
-      <c r="I37" t="n">
-        <v>10395934</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Jun 13 06:04 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>ACRS</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Leonard Braden Michael</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>10% Owner</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Jun 12</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="G38" t="n">
-        <v>82579</v>
-      </c>
-      <c r="H38" t="n">
-        <v>94140</v>
-      </c>
-      <c r="I38" t="n">
-        <v>10478513</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Jun 13 06:04 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>ACRS</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Leonard Braden Michael</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>10% Owner</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Jun 13</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="G39" t="n">
-        <v>528621</v>
-      </c>
-      <c r="H39" t="n">
-        <v>607757</v>
-      </c>
-      <c r="I39" t="n">
-        <v>11007134</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Jun 13 06:04 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>UBFO</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>GILL JAGROOP</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Jun 11</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="G40" t="n">
-        <v>8255</v>
-      </c>
-      <c r="H40" t="n">
-        <v>59436</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1079667</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Jun 13 06:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>CBU</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Karaivanov Dimitar</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>President &amp; CEO</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Jun 13</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>43.52</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H41" t="n">
-        <v>43520</v>
-      </c>
-      <c r="I41" t="n">
-        <v>19653</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Jun 13 05:37 PM</t>
+          <t>Jun 14 05:19 PM</t>
         </is>
       </c>
     </row>

--- a/salidas/latest-insiders-trading-Buy.xlsx
+++ b/salidas/latest-insiders-trading-Buy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OPAD</t>
+          <t>GLSI</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sella Roberto Marco</t>
+          <t>Patel Snehal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CEO and CFO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,20 +500,20 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.9</v>
+        <v>14.3</v>
       </c>
       <c r="G2" t="n">
-        <v>2735</v>
+        <v>174825</v>
       </c>
       <c r="H2" t="n">
-        <v>13402</v>
+        <v>2499998</v>
       </c>
       <c r="I2" t="n">
-        <v>3121185</v>
+        <v>5525602</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Jun 14 07:52 PM</t>
+          <t>Jun 17 06:10 AM</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -547,13 +547,13 @@
         <v>4.9</v>
       </c>
       <c r="G3" t="n">
-        <v>10000</v>
+        <v>2735</v>
       </c>
       <c r="H3" t="n">
-        <v>49000</v>
+        <v>13402</v>
       </c>
       <c r="I3" t="n">
-        <v>3131185</v>
+        <v>3121185</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jun 14</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -591,13 +591,13 @@
         <v>4.9</v>
       </c>
       <c r="G4" t="n">
-        <v>7698</v>
+        <v>10000</v>
       </c>
       <c r="H4" t="n">
-        <v>37720</v>
+        <v>49000</v>
       </c>
       <c r="I4" t="n">
-        <v>3138883</v>
+        <v>3131185</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -608,17 +608,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SHEN</t>
+          <t>OPAD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FRENCH CHRISTOPHER E</t>
+          <t>Sella Roberto Marco</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>President &amp; CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -632,42 +632,42 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>15.79</v>
+        <v>4.9</v>
       </c>
       <c r="G5" t="n">
-        <v>5000</v>
+        <v>7698</v>
       </c>
       <c r="H5" t="n">
-        <v>78950</v>
+        <v>37720</v>
       </c>
       <c r="I5" t="n">
-        <v>84629</v>
+        <v>3138883</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Jun 14 07:41 PM</t>
+          <t>Jun 14 07:52 PM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>SHEN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Marcogliese Richard J</t>
+          <t>FRENCH CHRISTOPHER E</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>President &amp; CEO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -676,37 +676,37 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>23.99</v>
+        <v>15.79</v>
       </c>
       <c r="G6" t="n">
-        <v>2750</v>
+        <v>5000</v>
       </c>
       <c r="H6" t="n">
-        <v>65972</v>
+        <v>78950</v>
       </c>
       <c r="I6" t="n">
-        <v>42863</v>
+        <v>84629</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Jun 14 07:19 PM</t>
+          <t>Jun 14 07:41 PM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LGF-A</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liberty 77 Capital L.P.</t>
+          <t>Marcogliese Richard J</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -720,20 +720,20 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8.01</v>
+        <v>23.99</v>
       </c>
       <c r="G7" t="n">
-        <v>275245</v>
+        <v>2750</v>
       </c>
       <c r="H7" t="n">
-        <v>2204988</v>
+        <v>65972</v>
       </c>
       <c r="I7" t="n">
-        <v>8631954</v>
+        <v>42863</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Jun 14 07:01 PM</t>
+          <t>Jun 14 07:19 PM</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8.140000000000001</v>
+        <v>8.01</v>
       </c>
       <c r="G8" t="n">
-        <v>324755</v>
+        <v>275245</v>
       </c>
       <c r="H8" t="n">
-        <v>2643408</v>
+        <v>2204988</v>
       </c>
       <c r="I8" t="n">
-        <v>8956709</v>
+        <v>8631954</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jun 14</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -808,16 +808,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>8.19</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>98858</v>
+        <v>324755</v>
       </c>
       <c r="H9" t="n">
-        <v>809350</v>
+        <v>2643408</v>
       </c>
       <c r="I9" t="n">
-        <v>9055567</v>
+        <v>8956709</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LGF-B</t>
+          <t>LGF-A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -852,16 +852,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8.01</v>
+        <v>8.19</v>
       </c>
       <c r="G10" t="n">
-        <v>275245</v>
+        <v>98858</v>
       </c>
       <c r="H10" t="n">
-        <v>2204988</v>
+        <v>809350</v>
       </c>
       <c r="I10" t="n">
-        <v>8631954</v>
+        <v>9055567</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -896,16 +896,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8.140000000000001</v>
+        <v>8.01</v>
       </c>
       <c r="G11" t="n">
-        <v>324755</v>
+        <v>275245</v>
       </c>
       <c r="H11" t="n">
-        <v>2643408</v>
+        <v>2204988</v>
       </c>
       <c r="I11" t="n">
-        <v>8956709</v>
+        <v>8631954</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jun 14</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -940,16 +940,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8.19</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>98858</v>
+        <v>324755</v>
       </c>
       <c r="H12" t="n">
-        <v>809350</v>
+        <v>2643408</v>
       </c>
       <c r="I12" t="n">
-        <v>9055567</v>
+        <v>8956709</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -960,22 +960,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PFX</t>
+          <t>LGF-B</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lorber David A</t>
+          <t>Liberty 77 Capital L.P.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CHAIRMAN AND CEO</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -984,20 +984,20 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>44.98</v>
+        <v>8.19</v>
       </c>
       <c r="G13" t="n">
-        <v>628</v>
+        <v>98858</v>
       </c>
       <c r="H13" t="n">
-        <v>28245</v>
+        <v>809350</v>
       </c>
       <c r="I13" t="n">
-        <v>124961</v>
+        <v>9055567</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Jun 14 06:56 PM</t>
+          <t>Jun 14 07:01 PM</t>
         </is>
       </c>
     </row>
@@ -1028,16 +1028,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>44.85</v>
+        <v>44.98</v>
       </c>
       <c r="G14" t="n">
-        <v>289</v>
+        <v>628</v>
       </c>
       <c r="H14" t="n">
-        <v>12961</v>
+        <v>28245</v>
       </c>
       <c r="I14" t="n">
-        <v>3289</v>
+        <v>124961</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jun 14</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>45.08</v>
+        <v>44.85</v>
       </c>
       <c r="G15" t="n">
-        <v>64</v>
+        <v>289</v>
       </c>
       <c r="H15" t="n">
-        <v>2885</v>
+        <v>12961</v>
       </c>
       <c r="I15" t="n">
-        <v>125025</v>
+        <v>3289</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1092,22 +1092,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TPB</t>
+          <t>PFX</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Frein Summer</t>
+          <t>Lorber David A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Chief Revenue Officer</t>
+          <t>CHAIRMAN AND CEO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1116,42 +1116,42 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>30.96</v>
+        <v>45.08</v>
       </c>
       <c r="G16" t="n">
-        <v>2260</v>
+        <v>64</v>
       </c>
       <c r="H16" t="n">
-        <v>69970</v>
+        <v>2885</v>
       </c>
       <c r="I16" t="n">
-        <v>17203</v>
+        <v>125025</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Jun 14 06:50 PM</t>
+          <t>Jun 14 06:56 PM</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DALN</t>
+          <t>TPB</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MURRAY MARY K</t>
+          <t>Frein Summer</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>President, Treasurer Secretary</t>
+          <t>Chief Revenue Officer</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1160,20 +1160,20 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.76</v>
+        <v>30.96</v>
       </c>
       <c r="G17" t="n">
-        <v>1589</v>
+        <v>2260</v>
       </c>
       <c r="H17" t="n">
-        <v>5974</v>
+        <v>69970</v>
       </c>
       <c r="I17" t="n">
-        <v>7958</v>
+        <v>17203</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Jun 14 06:40 PM</t>
+          <t>Jun 14 06:50 PM</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1204,16 +1204,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.83</v>
+        <v>3.76</v>
       </c>
       <c r="G18" t="n">
-        <v>5102</v>
+        <v>1589</v>
       </c>
       <c r="H18" t="n">
-        <v>19562</v>
+        <v>5974</v>
       </c>
       <c r="I18" t="n">
-        <v>13060</v>
+        <v>7958</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jun 14</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1248,16 +1248,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.77</v>
+        <v>3.83</v>
       </c>
       <c r="G19" t="n">
-        <v>309</v>
+        <v>5102</v>
       </c>
       <c r="H19" t="n">
-        <v>1165</v>
+        <v>19562</v>
       </c>
       <c r="I19" t="n">
-        <v>13369</v>
+        <v>13060</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1268,17 +1268,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>DALN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Madaus Martin D</t>
+          <t>MURRAY MARY K</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>President, Treasurer Secretary</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1292,32 +1292,32 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>124.94</v>
+        <v>3.77</v>
       </c>
       <c r="G20" t="n">
-        <v>1615</v>
+        <v>309</v>
       </c>
       <c r="H20" t="n">
-        <v>201776</v>
+        <v>1165</v>
       </c>
       <c r="I20" t="n">
-        <v>4613</v>
+        <v>13369</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Jun 14 06:07 PM</t>
+          <t>Jun 14 06:40 PM</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>RGEN</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Rizik Matthew</t>
+          <t>Madaus Martin D</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1336,20 +1336,20 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>14.65</v>
+        <v>124.94</v>
       </c>
       <c r="G21" t="n">
-        <v>294</v>
+        <v>1615</v>
       </c>
       <c r="H21" t="n">
-        <v>4307</v>
+        <v>201776</v>
       </c>
       <c r="I21" t="n">
-        <v>704591</v>
+        <v>4613</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Jun 14 06:02 PM</t>
+          <t>Jun 14 06:07 PM</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jun 14</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1380,16 +1380,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>14.67</v>
+        <v>14.65</v>
       </c>
       <c r="G22" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H22" t="n">
-        <v>4357</v>
+        <v>4307</v>
       </c>
       <c r="I22" t="n">
-        <v>704888</v>
+        <v>704591</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1400,12 +1400,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>RKT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BARTHELEMY NICOLAS</t>
+          <t>Rizik Matthew</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1424,20 +1424,20 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>125.45</v>
+        <v>14.67</v>
       </c>
       <c r="G23" t="n">
-        <v>1200</v>
+        <v>297</v>
       </c>
       <c r="H23" t="n">
-        <v>150540</v>
+        <v>4357</v>
       </c>
       <c r="I23" t="n">
-        <v>4668</v>
+        <v>704888</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Jun 14 05:42 PM</t>
+          <t>Jun 14 06:02 PM</t>
         </is>
       </c>
     </row>
@@ -1449,12 +1449,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hunt Anthony</t>
+          <t>BARTHELEMY NICOLAS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1468,42 +1468,42 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>124.08</v>
+        <v>125.45</v>
       </c>
       <c r="G24" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="H24" t="n">
-        <v>248160</v>
+        <v>150540</v>
       </c>
       <c r="I24" t="n">
-        <v>165177</v>
+        <v>4668</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Jun 14 05:41 PM</t>
+          <t>Jun 14 05:42 PM</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SYPR</t>
+          <t>RGEN</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Convis Gary L</t>
+          <t>Hunt Anthony</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1512,32 +1512,32 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.92</v>
+        <v>124.08</v>
       </c>
       <c r="G25" t="n">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="H25" t="n">
-        <v>38400</v>
+        <v>248160</v>
       </c>
       <c r="I25" t="n">
-        <v>449811</v>
+        <v>165177</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Jun 14 05:38 PM</t>
+          <t>Jun 14 05:41 PM</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HTLD</t>
+          <t>SYPR</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PRATT JAMES G</t>
+          <t>Convis Gary L</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1556,37 +1556,37 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>11.96</v>
+        <v>1.92</v>
       </c>
       <c r="G26" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="H26" t="n">
-        <v>107619</v>
+        <v>38400</v>
       </c>
       <c r="I26" t="n">
-        <v>23429</v>
+        <v>449811</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Jun 14 05:36 PM</t>
+          <t>Jun 14 05:38 PM</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HLLY</t>
+          <t>HTLD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Rubel Matthew E</t>
+          <t>PRATT JAMES G</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Exec. Chairman of the Board</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1600,37 +1600,37 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.39</v>
+        <v>11.96</v>
       </c>
       <c r="G27" t="n">
-        <v>14493</v>
+        <v>9000</v>
       </c>
       <c r="H27" t="n">
-        <v>49131</v>
+        <v>107619</v>
       </c>
       <c r="I27" t="n">
-        <v>169979</v>
+        <v>23429</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Jun 14 05:24 PM</t>
+          <t>Jun 14 05:36 PM</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TLPH</t>
+          <t>HLLY</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Angotti Vincent J.</t>
+          <t>Rubel Matthew E</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CHIEF EXECUTIVE OFFICER</t>
+          <t>Exec. Chairman of the Board</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.97</v>
+        <v>3.39</v>
       </c>
       <c r="G28" t="n">
-        <v>4126</v>
+        <v>14493</v>
       </c>
       <c r="H28" t="n">
-        <v>4013</v>
+        <v>49131</v>
       </c>
       <c r="I28" t="n">
-        <v>174932</v>
+        <v>169979</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Jun 14 05:19 PM</t>
+          <t>Jun 14 05:24 PM</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1691,13 +1691,13 @@
         <v>0.97</v>
       </c>
       <c r="G29" t="n">
-        <v>4570</v>
+        <v>4126</v>
       </c>
       <c r="H29" t="n">
-        <v>4438</v>
+        <v>4013</v>
       </c>
       <c r="I29" t="n">
-        <v>179502</v>
+        <v>174932</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1723,27 +1723,71 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>Jun 13</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4570</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4438</v>
+      </c>
+      <c r="I30" t="n">
+        <v>179502</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Jun 14 05:19 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TLPH</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Angotti Vincent J.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CHIEF EXECUTIVE OFFICER</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>Jun 14</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
         <v>1.08</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G31" t="n">
         <v>1304</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H31" t="n">
         <v>1404</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I31" t="n">
         <v>180806</v>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>Jun 14 05:19 PM</t>
         </is>

--- a/salidas/latest-insiders-trading-Buy.xlsx
+++ b/salidas/latest-insiders-trading-Buy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GLSI</t>
+          <t>REFR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patel Snehal</t>
+          <t>Kaganowicz Alexander</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CEO and CFO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,42 +500,42 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>14.3</v>
+        <v>1.94</v>
       </c>
       <c r="G2" t="n">
-        <v>174825</v>
+        <v>2000</v>
       </c>
       <c r="H2" t="n">
-        <v>2499998</v>
+        <v>3880</v>
       </c>
       <c r="I2" t="n">
-        <v>5525602</v>
+        <v>164923</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Jun 17 06:10 AM</t>
+          <t>Jun 17 06:30 AM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OPAD</t>
+          <t>GLSI</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sella Roberto Marco</t>
+          <t>Patel Snehal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CEO and CFO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -544,20 +544,20 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.9</v>
+        <v>14.3</v>
       </c>
       <c r="G3" t="n">
-        <v>2735</v>
+        <v>174825</v>
       </c>
       <c r="H3" t="n">
-        <v>13402</v>
+        <v>2499998</v>
       </c>
       <c r="I3" t="n">
-        <v>3121185</v>
+        <v>5525602</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Jun 14 07:52 PM</t>
+          <t>Jun 17 06:10 AM</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -591,13 +591,13 @@
         <v>4.9</v>
       </c>
       <c r="G4" t="n">
-        <v>10000</v>
+        <v>2735</v>
       </c>
       <c r="H4" t="n">
-        <v>49000</v>
+        <v>13402</v>
       </c>
       <c r="I4" t="n">
-        <v>3131185</v>
+        <v>3121185</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jun 14</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -635,13 +635,13 @@
         <v>4.9</v>
       </c>
       <c r="G5" t="n">
-        <v>7698</v>
+        <v>10000</v>
       </c>
       <c r="H5" t="n">
-        <v>37720</v>
+        <v>49000</v>
       </c>
       <c r="I5" t="n">
-        <v>3138883</v>
+        <v>3131185</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -652,17 +652,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SHEN</t>
+          <t>OPAD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FRENCH CHRISTOPHER E</t>
+          <t>Sella Roberto Marco</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>President &amp; CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -676,42 +676,42 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>15.79</v>
+        <v>4.9</v>
       </c>
       <c r="G6" t="n">
-        <v>5000</v>
+        <v>7698</v>
       </c>
       <c r="H6" t="n">
-        <v>78950</v>
+        <v>37720</v>
       </c>
       <c r="I6" t="n">
-        <v>84629</v>
+        <v>3138883</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Jun 14 07:41 PM</t>
+          <t>Jun 14 07:52 PM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>SHEN</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Marcogliese Richard J</t>
+          <t>FRENCH CHRISTOPHER E</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>President &amp; CEO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -720,37 +720,37 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>23.99</v>
+        <v>15.79</v>
       </c>
       <c r="G7" t="n">
-        <v>2750</v>
+        <v>5000</v>
       </c>
       <c r="H7" t="n">
-        <v>65972</v>
+        <v>78950</v>
       </c>
       <c r="I7" t="n">
-        <v>42863</v>
+        <v>84629</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Jun 14 07:19 PM</t>
+          <t>Jun 14 07:41 PM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LGF-A</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liberty 77 Capital L.P.</t>
+          <t>Marcogliese Richard J</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8.01</v>
+        <v>23.99</v>
       </c>
       <c r="G8" t="n">
-        <v>275245</v>
+        <v>2750</v>
       </c>
       <c r="H8" t="n">
-        <v>2204988</v>
+        <v>65972</v>
       </c>
       <c r="I8" t="n">
-        <v>8631954</v>
+        <v>42863</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Jun 14 07:01 PM</t>
+          <t>Jun 14 07:19 PM</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -808,16 +808,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>8.140000000000001</v>
+        <v>8.01</v>
       </c>
       <c r="G9" t="n">
-        <v>324755</v>
+        <v>275245</v>
       </c>
       <c r="H9" t="n">
-        <v>2643408</v>
+        <v>2204988</v>
       </c>
       <c r="I9" t="n">
-        <v>8956709</v>
+        <v>8631954</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jun 14</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -852,16 +852,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8.19</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>98858</v>
+        <v>324755</v>
       </c>
       <c r="H10" t="n">
-        <v>809350</v>
+        <v>2643408</v>
       </c>
       <c r="I10" t="n">
-        <v>9055567</v>
+        <v>8956709</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LGF-B</t>
+          <t>LGF-A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -896,16 +896,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8.01</v>
+        <v>8.19</v>
       </c>
       <c r="G11" t="n">
-        <v>275245</v>
+        <v>98858</v>
       </c>
       <c r="H11" t="n">
-        <v>2204988</v>
+        <v>809350</v>
       </c>
       <c r="I11" t="n">
-        <v>8631954</v>
+        <v>9055567</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -940,16 +940,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8.140000000000001</v>
+        <v>8.01</v>
       </c>
       <c r="G12" t="n">
-        <v>324755</v>
+        <v>275245</v>
       </c>
       <c r="H12" t="n">
-        <v>2643408</v>
+        <v>2204988</v>
       </c>
       <c r="I12" t="n">
-        <v>8956709</v>
+        <v>8631954</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jun 14</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -984,16 +984,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8.19</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>98858</v>
+        <v>324755</v>
       </c>
       <c r="H13" t="n">
-        <v>809350</v>
+        <v>2643408</v>
       </c>
       <c r="I13" t="n">
-        <v>9055567</v>
+        <v>8956709</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1004,22 +1004,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PFX</t>
+          <t>LGF-B</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lorber David A</t>
+          <t>Liberty 77 Capital L.P.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CHAIRMAN AND CEO</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1028,20 +1028,20 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>44.98</v>
+        <v>8.19</v>
       </c>
       <c r="G14" t="n">
-        <v>628</v>
+        <v>98858</v>
       </c>
       <c r="H14" t="n">
-        <v>28245</v>
+        <v>809350</v>
       </c>
       <c r="I14" t="n">
-        <v>124961</v>
+        <v>9055567</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Jun 14 06:56 PM</t>
+          <t>Jun 14 07:01 PM</t>
         </is>
       </c>
     </row>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>44.85</v>
+        <v>44.98</v>
       </c>
       <c r="G15" t="n">
-        <v>289</v>
+        <v>628</v>
       </c>
       <c r="H15" t="n">
-        <v>12961</v>
+        <v>28245</v>
       </c>
       <c r="I15" t="n">
-        <v>3289</v>
+        <v>124961</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jun 14</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1116,16 +1116,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>45.08</v>
+        <v>44.85</v>
       </c>
       <c r="G16" t="n">
-        <v>64</v>
+        <v>289</v>
       </c>
       <c r="H16" t="n">
-        <v>2885</v>
+        <v>12961</v>
       </c>
       <c r="I16" t="n">
-        <v>125025</v>
+        <v>3289</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1136,22 +1136,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TPB</t>
+          <t>PFX</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Frein Summer</t>
+          <t>Lorber David A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Chief Revenue Officer</t>
+          <t>CHAIRMAN AND CEO</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1160,42 +1160,42 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>30.96</v>
+        <v>45.08</v>
       </c>
       <c r="G17" t="n">
-        <v>2260</v>
+        <v>64</v>
       </c>
       <c r="H17" t="n">
-        <v>69970</v>
+        <v>2885</v>
       </c>
       <c r="I17" t="n">
-        <v>17203</v>
+        <v>125025</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Jun 14 06:50 PM</t>
+          <t>Jun 14 06:56 PM</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DALN</t>
+          <t>TPB</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MURRAY MARY K</t>
+          <t>Frein Summer</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>President, Treasurer Secretary</t>
+          <t>Chief Revenue Officer</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1204,20 +1204,20 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.76</v>
+        <v>30.96</v>
       </c>
       <c r="G18" t="n">
-        <v>1589</v>
+        <v>2260</v>
       </c>
       <c r="H18" t="n">
-        <v>5974</v>
+        <v>69970</v>
       </c>
       <c r="I18" t="n">
-        <v>7958</v>
+        <v>17203</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Jun 14 06:40 PM</t>
+          <t>Jun 14 06:50 PM</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1248,16 +1248,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.83</v>
+        <v>3.76</v>
       </c>
       <c r="G19" t="n">
-        <v>5102</v>
+        <v>1589</v>
       </c>
       <c r="H19" t="n">
-        <v>19562</v>
+        <v>5974</v>
       </c>
       <c r="I19" t="n">
-        <v>13060</v>
+        <v>7958</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jun 14</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1292,16 +1292,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.77</v>
+        <v>3.83</v>
       </c>
       <c r="G20" t="n">
-        <v>309</v>
+        <v>5102</v>
       </c>
       <c r="H20" t="n">
-        <v>1165</v>
+        <v>19562</v>
       </c>
       <c r="I20" t="n">
-        <v>13369</v>
+        <v>13060</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1312,17 +1312,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>DALN</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Madaus Martin D</t>
+          <t>MURRAY MARY K</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>President, Treasurer Secretary</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1336,32 +1336,32 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>124.94</v>
+        <v>3.77</v>
       </c>
       <c r="G21" t="n">
-        <v>1615</v>
+        <v>309</v>
       </c>
       <c r="H21" t="n">
-        <v>201776</v>
+        <v>1165</v>
       </c>
       <c r="I21" t="n">
-        <v>4613</v>
+        <v>13369</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Jun 14 06:07 PM</t>
+          <t>Jun 14 06:40 PM</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>RGEN</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Rizik Matthew</t>
+          <t>Madaus Martin D</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1380,20 +1380,20 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>14.65</v>
+        <v>124.94</v>
       </c>
       <c r="G22" t="n">
-        <v>294</v>
+        <v>1615</v>
       </c>
       <c r="H22" t="n">
-        <v>4307</v>
+        <v>201776</v>
       </c>
       <c r="I22" t="n">
-        <v>704591</v>
+        <v>4613</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Jun 14 06:02 PM</t>
+          <t>Jun 14 06:07 PM</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jun 14</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1424,16 +1424,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>14.67</v>
+        <v>14.65</v>
       </c>
       <c r="G23" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H23" t="n">
-        <v>4357</v>
+        <v>4307</v>
       </c>
       <c r="I23" t="n">
-        <v>704888</v>
+        <v>704591</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1444,12 +1444,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RGEN</t>
+          <t>RKT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BARTHELEMY NICOLAS</t>
+          <t>Rizik Matthew</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1468,20 +1468,20 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>125.45</v>
+        <v>14.67</v>
       </c>
       <c r="G24" t="n">
-        <v>1200</v>
+        <v>297</v>
       </c>
       <c r="H24" t="n">
-        <v>150540</v>
+        <v>4357</v>
       </c>
       <c r="I24" t="n">
-        <v>4668</v>
+        <v>704888</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Jun 14 05:42 PM</t>
+          <t>Jun 14 06:02 PM</t>
         </is>
       </c>
     </row>
@@ -1493,12 +1493,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hunt Anthony</t>
+          <t>BARTHELEMY NICOLAS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1512,42 +1512,42 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>124.08</v>
+        <v>125.45</v>
       </c>
       <c r="G25" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="H25" t="n">
-        <v>248160</v>
+        <v>150540</v>
       </c>
       <c r="I25" t="n">
-        <v>165177</v>
+        <v>4668</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Jun 14 05:41 PM</t>
+          <t>Jun 14 05:42 PM</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SYPR</t>
+          <t>RGEN</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Convis Gary L</t>
+          <t>Hunt Anthony</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1556,32 +1556,32 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.92</v>
+        <v>124.08</v>
       </c>
       <c r="G26" t="n">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="H26" t="n">
-        <v>38400</v>
+        <v>248160</v>
       </c>
       <c r="I26" t="n">
-        <v>449811</v>
+        <v>165177</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Jun 14 05:38 PM</t>
+          <t>Jun 14 05:41 PM</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HTLD</t>
+          <t>SYPR</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PRATT JAMES G</t>
+          <t>Convis Gary L</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1600,37 +1600,37 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>11.96</v>
+        <v>1.92</v>
       </c>
       <c r="G27" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="H27" t="n">
-        <v>107619</v>
+        <v>38400</v>
       </c>
       <c r="I27" t="n">
-        <v>23429</v>
+        <v>449811</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Jun 14 05:36 PM</t>
+          <t>Jun 14 05:38 PM</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HLLY</t>
+          <t>HTLD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Rubel Matthew E</t>
+          <t>PRATT JAMES G</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Exec. Chairman of the Board</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1644,37 +1644,37 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.39</v>
+        <v>11.96</v>
       </c>
       <c r="G28" t="n">
-        <v>14493</v>
+        <v>9000</v>
       </c>
       <c r="H28" t="n">
-        <v>49131</v>
+        <v>107619</v>
       </c>
       <c r="I28" t="n">
-        <v>169979</v>
+        <v>23429</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Jun 14 05:24 PM</t>
+          <t>Jun 14 05:36 PM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TLPH</t>
+          <t>HLLY</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Angotti Vincent J.</t>
+          <t>Rubel Matthew E</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CHIEF EXECUTIVE OFFICER</t>
+          <t>Exec. Chairman of the Board</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1688,20 +1688,20 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.97</v>
+        <v>3.39</v>
       </c>
       <c r="G29" t="n">
-        <v>4126</v>
+        <v>14493</v>
       </c>
       <c r="H29" t="n">
-        <v>4013</v>
+        <v>49131</v>
       </c>
       <c r="I29" t="n">
-        <v>174932</v>
+        <v>169979</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Jun 14 05:19 PM</t>
+          <t>Jun 14 05:24 PM</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1735,13 +1735,13 @@
         <v>0.97</v>
       </c>
       <c r="G30" t="n">
-        <v>4570</v>
+        <v>4126</v>
       </c>
       <c r="H30" t="n">
-        <v>4438</v>
+        <v>4013</v>
       </c>
       <c r="I30" t="n">
-        <v>179502</v>
+        <v>174932</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1767,27 +1767,71 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>Jun 13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4570</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4438</v>
+      </c>
+      <c r="I31" t="n">
+        <v>179502</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Jun 14 05:19 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>TLPH</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Angotti Vincent J.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CHIEF EXECUTIVE OFFICER</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>Jun 14</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
         <v>1.08</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G32" t="n">
         <v>1304</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H32" t="n">
         <v>1404</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I32" t="n">
         <v>180806</v>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>Jun 14 05:19 PM</t>
         </is>
